--- a/20_営業/07_会計/TE030/T_TE030_CFO_019_A17_01_電子帳簿AP支払の情報系システム連携_OIC統合.xlsx
+++ b/20_営業/07_会計/TE030/T_TE030_CFO_019_A17_01_電子帳簿AP支払の情報系システム連携_OIC統合.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\20_実装フェーズ\10_成果物\16_単体テスト実施\外部結合完了時\OIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19901～20000\E_本稼動_19992【共通】OIC3アップグレード対応\20_成果物\TE030\無影響確認\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="17415" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="6000" windowWidth="17415" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -30,18 +30,20 @@
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ11)" sheetId="19" r:id="rId16"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ12)" sheetId="20" r:id="rId17"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ13)" sheetId="12" r:id="rId18"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId19"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId20"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ14)" sheetId="22" r:id="rId19"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId20"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId21"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">テスト・シナリオ一覧!$D$6:$E$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">テスト仕様_データ・プロファイル!$A$1:$C$74</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'テスト仕様_テスト結果(テスト・シナリオ1)'!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">'テスト仕様_テスト結果(テスト・シナリオ10)'!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">'テスト仕様_テスト結果(テスト・シナリオ11)'!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="16">'テスト仕様_テスト結果(テスト・シナリオ12)'!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="17">'テスト仕様_テスト結果(テスト・シナリオ13)'!$A$1:$I$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">'テスト仕様_テスト結果(テスト・シナリオ14)'!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'テスト仕様_テスト結果(テスト・シナリオ2)'!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'テスト仕様_テスト結果(テスト・シナリオ3) '!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'テスト仕様_テスト結果(テスト・シナリオ4)'!$A$1:$I$41</definedName>
@@ -52,9 +54,9 @@
     <definedName name="_xlnm.Print_Area" localSheetId="13">'テスト仕様_テスト結果(テスト・シナリオ9)'!$A$1:$I$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$16</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="230">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -1330,17 +1332,158 @@
   <si>
     <t>Issue化</t>
   </si>
+  <si>
+    <t>Issue1.1</t>
+  </si>
+  <si>
+    <t>Issue1.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SCSK 佐藤勇樹</t>
+    <rPh sb="5" eb="9">
+      <t>サトウユウキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>シナリオ14</t>
+  </si>
+  <si>
+    <t>OIC3アップグレード 無影響確認テスト(DBへのCUID・共通処理動作確認)</t>
+  </si>
+  <si>
+    <t>テスト・シナリオ14</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>正常終了する。</t>
+  </si>
+  <si>
+    <t>左記の通り</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(前回処理日取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(業務日付取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(処理開始時刻取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(猶予日数取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>入力パラメータ：
+無し</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO019A17_01を実行する。
+OIC3アップグレードの影響でDBへのCUIDを実行するアクティビティまたは共通関数を呼び出すアクティビティの実行に影響が出ていないことを確認する。</t>
+    <rPh sb="15" eb="17">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO019A17_01(電子帳簿AP支払の情報系システム連携)</t>
+    <rPh sb="15" eb="17">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>チョウボ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シハライ</t>
+    </rPh>
+    <rPh sb="24" eb="27">
+      <t>ジョウホウケイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>レンケイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO019A17_01から共通処理XXCCD002が実行され、正常終了する。</t>
+    <rPh sb="16" eb="20">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>14-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>14-2</t>
+  </si>
+  <si>
+    <t>14-3</t>
+  </si>
+  <si>
+    <t>14-4</t>
+  </si>
+  <si>
+    <t>14-5</t>
+  </si>
+  <si>
+    <t>14-6</t>
+  </si>
+  <si>
+    <t>XXCCD002(初回データ対象日時取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>T_TE030_CFO_019_A17_01_電子帳簿AP支払の情報系システム連携_OIC統合_エビデンス(シナリオ14).xlsx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E_本稼働_19992 OICアップグレード対応 無影響確認</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1520,6 +1663,21 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2158,7 +2316,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2502,6 +2660,21 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="3" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2546,6 +2719,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFC0C0C0"/>
     </mruColors>
@@ -6458,6 +6632,731 @@
         <a:xfrm>
           <a:off x="28575" y="30184725"/>
           <a:ext cx="3400425" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="30510480"/>
+          <a:ext cx="6939915" cy="2606040"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="33211770"/>
+          <a:ext cx="6939915" cy="2802255"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>108585</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="29691330"/>
+          <a:ext cx="3303270" cy="455295"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -12602,7 +13501,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
@@ -12927,7 +13826,7 @@
     <col min="16134" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="12" customHeight="1">
+    <row r="3" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -12935,7 +13834,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="6" customHeight="1">
+    <row r="4" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -12944,7 +13843,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="21">
+    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -12953,67 +13852,67 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1">
-      <c r="B6" s="125" t="s">
+    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
-      <c r="E6" s="125"/>
-      <c r="F6" s="125"/>
-      <c r="G6" s="125"/>
-      <c r="H6" s="125"/>
-    </row>
-    <row r="7" spans="2:8" ht="6" customHeight="1">
+      <c r="C6" s="130"/>
+      <c r="D6" s="130"/>
+      <c r="E6" s="130"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="130"/>
+      <c r="H6" s="130"/>
+    </row>
+    <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="6" customHeight="1">
+    <row r="8" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B9" s="126" t="s">
+    <row r="9" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-    </row>
-    <row r="10" spans="2:8" ht="6" customHeight="1">
+      <c r="C9" s="131"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="131"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="131"/>
+    </row>
+    <row r="10" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B11" s="126" t="s">
+    <row r="11" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="126"/>
-    </row>
-    <row r="12" spans="2:8" ht="6" customHeight="1"/>
-    <row r="13" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B13" s="126" t="s">
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+    </row>
+    <row r="12" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="126"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
@@ -13021,11 +13920,11 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="6" customHeight="1">
+    <row r="17" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
@@ -13033,23 +13932,23 @@
         <v>44921</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="6" customHeight="1">
+    <row r="19" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>44984</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="6" customHeight="1">
+        <v>45561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="6" t="s">
         <v>74</v>
       </c>
@@ -13057,25 +13956,25 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="6" customHeight="1">
+    <row r="23" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="12" customHeight="1">
+    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -13087,7 +13986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12" customHeight="1">
+    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -13126,7 +14025,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -13706,7 +14605,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -13717,35 +14616,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>42</v>
       </c>
@@ -13771,7 +14670,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>162</v>
@@ -13786,7 +14685,7 @@
       <c r="H11" s="115"/>
       <c r="I11" s="118"/>
     </row>
-    <row r="12" spans="1:9" ht="84">
+    <row r="12" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>163</v>
       </c>
@@ -13812,7 +14711,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -13832,7 +14731,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="116"/>
@@ -13852,7 +14751,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A15" s="38"/>
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
@@ -13873,7 +14772,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
@@ -13884,7 +14783,7 @@
       <c r="H16" s="57"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
@@ -13895,7 +14794,7 @@
       <c r="H17" s="57"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
@@ -13906,7 +14805,7 @@
       <c r="H18" s="57"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116"/>
@@ -13916,7 +14815,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -13926,7 +14825,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -13936,7 +14835,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -13946,7 +14845,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -13956,7 +14855,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -13966,7 +14865,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="114"/>
       <c r="D25" s="46"/>
@@ -13976,7 +14875,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -13986,7 +14885,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -13996,7 +14895,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -14006,7 +14905,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -14016,7 +14915,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" thickBot="1">
+    <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="72"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -14026,7 +14925,7 @@
       <c r="H30" s="47"/>
       <c r="I30" s="77"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -14036,7 +14935,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -14046,7 +14945,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -14056,7 +14955,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>50</v>
       </c>
@@ -14066,7 +14965,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -14076,7 +14975,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="119"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -14086,7 +14985,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -14096,7 +14995,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -14106,7 +15005,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -14116,7 +15015,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -14134,7 +15033,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -14153,7 +15052,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -14733,7 +15632,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -14744,35 +15643,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>42</v>
       </c>
@@ -14798,7 +15697,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>165</v>
@@ -14813,7 +15712,7 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="105">
+    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>166</v>
@@ -14840,7 +15739,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -14861,7 +15760,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -14881,7 +15780,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -14891,7 +15790,7 @@
       <c r="H15" s="46"/>
       <c r="I15" s="76"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -14901,7 +15800,7 @@
       <c r="H16" s="46"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -14911,7 +15810,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -14921,7 +15820,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -14931,7 +15830,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
@@ -14942,7 +15841,7 @@
       <c r="H20" s="57"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -14953,7 +15852,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -14963,7 +15862,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="38"/>
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
@@ -14974,7 +15873,7 @@
       <c r="H23" s="57"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
@@ -14985,7 +15884,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -14995,7 +15894,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -15005,7 +15904,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -15015,7 +15914,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -15025,7 +15924,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -15035,7 +15934,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" thickBot="1">
+    <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="72"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -15045,7 +15944,7 @@
       <c r="H30" s="47"/>
       <c r="I30" s="77"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -15055,7 +15954,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -15065,7 +15964,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -15075,7 +15974,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>50</v>
       </c>
@@ -15085,7 +15984,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -15095,7 +15994,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="119"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -15105,7 +16004,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -15115,7 +16014,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -15125,7 +16024,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -15135,7 +16034,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -15153,7 +16052,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -15172,7 +16071,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -15752,7 +16651,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -15763,35 +16662,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>42</v>
       </c>
@@ -15817,7 +16716,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>168</v>
@@ -15832,7 +16731,7 @@
       <c r="H11" s="115"/>
       <c r="I11" s="118"/>
     </row>
-    <row r="12" spans="1:9" ht="84">
+    <row r="12" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>167</v>
       </c>
@@ -15858,7 +16757,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -15878,7 +16777,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="116"/>
@@ -15898,7 +16797,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A15" s="38"/>
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
@@ -15919,7 +16818,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
@@ -15930,7 +16829,7 @@
       <c r="H16" s="57"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
@@ -15941,7 +16840,7 @@
       <c r="H17" s="57"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
@@ -15952,7 +16851,7 @@
       <c r="H18" s="57"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116"/>
@@ -15962,7 +16861,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -15972,7 +16871,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -15982,7 +16881,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -15992,7 +16891,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -16002,7 +16901,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -16012,7 +16911,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="114"/>
       <c r="D25" s="46"/>
@@ -16022,7 +16921,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -16032,7 +16931,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -16042,7 +16941,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -16052,7 +16951,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -16062,7 +16961,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" thickBot="1">
+    <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="72"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -16072,7 +16971,7 @@
       <c r="H30" s="47"/>
       <c r="I30" s="77"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -16082,7 +16981,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -16092,7 +16991,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -16102,7 +17001,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>50</v>
       </c>
@@ -16112,7 +17011,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -16122,7 +17021,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="119"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -16132,7 +17031,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -16142,7 +17041,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -16152,7 +17051,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -16162,7 +17061,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -16180,7 +17079,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -16199,7 +17098,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -16779,7 +17678,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -16790,35 +17689,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>42</v>
       </c>
@@ -16844,7 +17743,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>170</v>
@@ -16859,7 +17758,7 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="84">
+    <row r="12" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>171</v>
@@ -16886,7 +17785,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -16907,7 +17806,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="116"/>
@@ -16927,7 +17826,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -16947,7 +17846,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -16957,7 +17856,7 @@
       <c r="H16" s="46"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -16967,7 +17866,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -16977,7 +17876,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -16987,7 +17886,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
@@ -16998,7 +17897,7 @@
       <c r="H20" s="57"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -17009,7 +17908,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -17019,7 +17918,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="38"/>
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
@@ -17030,7 +17929,7 @@
       <c r="H23" s="57"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
@@ -17041,7 +17940,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -17051,7 +17950,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -17061,7 +17960,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -17071,7 +17970,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -17081,7 +17980,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -17091,7 +17990,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" thickBot="1">
+    <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="72"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -17101,7 +18000,7 @@
       <c r="H30" s="47"/>
       <c r="I30" s="77"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -17111,7 +18010,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -17121,7 +18020,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -17131,7 +18030,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>50</v>
       </c>
@@ -17141,7 +18040,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -17151,7 +18050,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="119"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -17161,7 +18060,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -17171,7 +18070,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -17181,7 +18080,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -17191,7 +18090,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -17209,7 +18108,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -17228,7 +18127,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -17808,7 +18707,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -17819,35 +18718,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>42</v>
       </c>
@@ -17873,7 +18772,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>172</v>
@@ -17888,7 +18787,7 @@
       <c r="H11" s="115"/>
       <c r="I11" s="118"/>
     </row>
-    <row r="12" spans="1:9" ht="84">
+    <row r="12" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>173</v>
       </c>
@@ -17914,7 +18813,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -17934,7 +18833,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="116"/>
@@ -17954,7 +18853,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A15" s="38"/>
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
@@ -17975,7 +18874,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
@@ -17986,7 +18885,7 @@
       <c r="H16" s="57"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
@@ -17997,7 +18896,7 @@
       <c r="H17" s="57"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
@@ -18008,7 +18907,7 @@
       <c r="H18" s="57"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116"/>
@@ -18018,7 +18917,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -18028,7 +18927,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -18038,7 +18937,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -18048,7 +18947,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -18058,7 +18957,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -18068,7 +18967,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="114"/>
       <c r="D25" s="46"/>
@@ -18078,7 +18977,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -18088,7 +18987,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -18098,7 +18997,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -18108,7 +19007,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -18118,7 +19017,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" thickBot="1">
+    <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="72"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -18128,7 +19027,7 @@
       <c r="H30" s="47"/>
       <c r="I30" s="77"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -18138,7 +19037,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -18148,7 +19047,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -18158,7 +19057,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>50</v>
       </c>
@@ -18168,7 +19067,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -18178,7 +19077,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="119"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -18188,7 +19087,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -18198,7 +19097,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -18208,7 +19107,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -18218,7 +19117,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -18236,7 +19135,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -18255,7 +19154,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -18835,7 +19734,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -18846,35 +19745,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>42</v>
       </c>
@@ -18900,7 +19799,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>174</v>
@@ -18915,7 +19814,7 @@
       <c r="H11" s="115"/>
       <c r="I11" s="118"/>
     </row>
-    <row r="12" spans="1:9" ht="84">
+    <row r="12" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>175</v>
       </c>
@@ -18941,7 +19840,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -18961,7 +19860,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="116"/>
@@ -18981,7 +19880,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A15" s="38"/>
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
@@ -19002,7 +19901,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
@@ -19013,7 +19912,7 @@
       <c r="H16" s="57"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
@@ -19024,7 +19923,7 @@
       <c r="H17" s="57"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
@@ -19035,7 +19934,7 @@
       <c r="H18" s="57"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116"/>
@@ -19045,7 +19944,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -19055,7 +19954,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -19065,7 +19964,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -19075,7 +19974,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -19085,7 +19984,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -19095,7 +19994,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="114"/>
       <c r="D25" s="46"/>
@@ -19105,7 +20004,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -19115,7 +20014,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -19125,7 +20024,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -19135,7 +20034,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -19145,7 +20044,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" thickBot="1">
+    <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="72"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -19155,7 +20054,7 @@
       <c r="H30" s="47"/>
       <c r="I30" s="77"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -19165,7 +20064,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -19175,7 +20074,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -19185,7 +20084,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>50</v>
       </c>
@@ -19195,7 +20094,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -19205,7 +20104,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="119"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -19215,7 +20114,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -19225,7 +20124,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -19235,7 +20134,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -19245,7 +20144,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -19263,7 +20162,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -19282,7 +20181,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -19862,7 +20761,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -19873,35 +20772,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>42</v>
       </c>
@@ -19927,7 +20826,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>189</v>
@@ -19942,7 +20841,7 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="94.5">
+    <row r="12" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>176</v>
@@ -19969,7 +20868,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -19990,7 +20889,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -20010,7 +20909,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -20020,7 +20919,7 @@
       <c r="H15" s="46"/>
       <c r="I15" s="76"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -20030,7 +20929,7 @@
       <c r="H16" s="46"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -20040,7 +20939,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -20050,7 +20949,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -20060,7 +20959,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
@@ -20071,7 +20970,7 @@
       <c r="H20" s="57"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -20082,7 +20981,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -20092,7 +20991,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="38"/>
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
@@ -20103,7 +21002,7 @@
       <c r="H23" s="57"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
@@ -20114,7 +21013,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -20124,7 +21023,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -20134,7 +21033,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -20144,7 +21043,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -20154,7 +21053,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -20164,7 +21063,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" thickBot="1">
+    <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="72"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -20174,7 +21073,7 @@
       <c r="H30" s="47"/>
       <c r="I30" s="77"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -20184,7 +21083,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -20194,7 +21093,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -20204,7 +21103,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>50</v>
       </c>
@@ -20214,7 +21113,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -20224,7 +21123,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="119"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -20234,7 +21133,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -20244,7 +21143,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -20254,7 +21153,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -20264,7 +21163,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -20282,7 +21181,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -20301,7 +21200,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -20881,7 +21780,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -20892,35 +21791,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>42</v>
       </c>
@@ -20946,7 +21845,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>187</v>
@@ -20961,7 +21860,7 @@
       <c r="H11" s="115"/>
       <c r="I11" s="118"/>
     </row>
-    <row r="12" spans="1:9" ht="84">
+    <row r="12" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>177</v>
       </c>
@@ -20987,7 +21886,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -21007,7 +21906,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="116"/>
@@ -21027,7 +21926,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A15" s="38"/>
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
@@ -21048,7 +21947,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
@@ -21059,7 +21958,7 @@
       <c r="H16" s="57"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
@@ -21070,7 +21969,7 @@
       <c r="H17" s="57"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
@@ -21081,7 +21980,7 @@
       <c r="H18" s="57"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116"/>
@@ -21091,7 +21990,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -21101,7 +22000,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -21111,7 +22010,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -21121,7 +22020,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -21131,7 +22030,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -21141,7 +22040,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="114"/>
       <c r="D25" s="46"/>
@@ -21151,7 +22050,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -21161,7 +22060,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -21171,7 +22070,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -21181,7 +22080,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -21191,7 +22090,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" thickBot="1">
+    <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="72"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -21201,7 +22100,7 @@
       <c r="H30" s="47"/>
       <c r="I30" s="77"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -21211,7 +22110,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -21221,7 +22120,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -21231,7 +22130,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>50</v>
       </c>
@@ -21241,7 +22140,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -21251,7 +22150,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="119"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -21261,7 +22160,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -21271,7 +22170,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -21281,7 +22180,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -21291,7 +22190,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -21309,7 +22208,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -21327,7 +22226,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -21907,7 +22806,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -21918,35 +22817,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>42</v>
       </c>
@@ -21972,7 +22871,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>183</v>
@@ -21987,7 +22886,7 @@
       <c r="H11" s="115"/>
       <c r="I11" s="118"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>184</v>
@@ -22002,7 +22901,7 @@
       <c r="H12" s="57"/>
       <c r="I12" s="76"/>
     </row>
-    <row r="13" spans="1:9" ht="84">
+    <row r="13" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B13" s="64" t="s">
         <v>185</v>
       </c>
@@ -22028,7 +22927,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -22048,7 +22947,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="42">
+    <row r="15" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="116"/>
@@ -22068,7 +22967,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="52.5">
+    <row r="16" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
@@ -22089,7 +22988,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
@@ -22100,7 +22999,7 @@
       <c r="H17" s="57"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
@@ -22111,7 +23010,7 @@
       <c r="H18" s="57"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116"/>
@@ -22121,7 +23020,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -22131,7 +23030,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -22141,7 +23040,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -22151,7 +23050,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -22161,7 +23060,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -22171,7 +23070,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="114"/>
       <c r="D25" s="46"/>
@@ -22181,7 +23080,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -22191,7 +23090,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -22201,7 +23100,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -22211,7 +23110,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -22221,7 +23120,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" thickBot="1">
+    <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="72"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -22231,7 +23130,7 @@
       <c r="H30" s="47"/>
       <c r="I30" s="77"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -22241,7 +23140,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -22251,7 +23150,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -22261,7 +23160,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>50</v>
       </c>
@@ -22271,7 +23170,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -22281,7 +23180,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="119"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -22291,7 +23190,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -22301,7 +23200,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -22311,7 +23210,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -22321,7 +23220,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -22339,7 +23238,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -22347,12 +23246,1357 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
+    <col min="10" max="256" width="8.875" style="27"/>
+    <col min="257" max="257" width="3.125" style="27" customWidth="1"/>
+    <col min="258" max="258" width="9.75" style="27" customWidth="1"/>
+    <col min="259" max="259" width="40.125" style="27" customWidth="1"/>
+    <col min="260" max="260" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="261" max="262" width="21.625" style="27" customWidth="1"/>
+    <col min="263" max="263" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="10.125" style="27" customWidth="1"/>
+    <col min="265" max="265" width="11.625" style="27" customWidth="1"/>
+    <col min="266" max="512" width="8.875" style="27"/>
+    <col min="513" max="513" width="3.125" style="27" customWidth="1"/>
+    <col min="514" max="514" width="9.75" style="27" customWidth="1"/>
+    <col min="515" max="515" width="40.125" style="27" customWidth="1"/>
+    <col min="516" max="516" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="517" max="518" width="21.625" style="27" customWidth="1"/>
+    <col min="519" max="519" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="10.125" style="27" customWidth="1"/>
+    <col min="521" max="521" width="11.625" style="27" customWidth="1"/>
+    <col min="522" max="768" width="8.875" style="27"/>
+    <col min="769" max="769" width="3.125" style="27" customWidth="1"/>
+    <col min="770" max="770" width="9.75" style="27" customWidth="1"/>
+    <col min="771" max="771" width="40.125" style="27" customWidth="1"/>
+    <col min="772" max="772" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="773" max="774" width="21.625" style="27" customWidth="1"/>
+    <col min="775" max="775" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="10.125" style="27" customWidth="1"/>
+    <col min="777" max="777" width="11.625" style="27" customWidth="1"/>
+    <col min="778" max="1024" width="8.875" style="27"/>
+    <col min="1025" max="1025" width="3.125" style="27" customWidth="1"/>
+    <col min="1026" max="1026" width="9.75" style="27" customWidth="1"/>
+    <col min="1027" max="1027" width="40.125" style="27" customWidth="1"/>
+    <col min="1028" max="1028" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1030" width="21.625" style="27" customWidth="1"/>
+    <col min="1031" max="1031" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="10.125" style="27" customWidth="1"/>
+    <col min="1033" max="1033" width="11.625" style="27" customWidth="1"/>
+    <col min="1034" max="1280" width="8.875" style="27"/>
+    <col min="1281" max="1281" width="3.125" style="27" customWidth="1"/>
+    <col min="1282" max="1282" width="9.75" style="27" customWidth="1"/>
+    <col min="1283" max="1283" width="40.125" style="27" customWidth="1"/>
+    <col min="1284" max="1284" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1286" width="21.625" style="27" customWidth="1"/>
+    <col min="1287" max="1287" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="10.125" style="27" customWidth="1"/>
+    <col min="1289" max="1289" width="11.625" style="27" customWidth="1"/>
+    <col min="1290" max="1536" width="8.875" style="27"/>
+    <col min="1537" max="1537" width="3.125" style="27" customWidth="1"/>
+    <col min="1538" max="1538" width="9.75" style="27" customWidth="1"/>
+    <col min="1539" max="1539" width="40.125" style="27" customWidth="1"/>
+    <col min="1540" max="1540" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1542" width="21.625" style="27" customWidth="1"/>
+    <col min="1543" max="1543" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="10.125" style="27" customWidth="1"/>
+    <col min="1545" max="1545" width="11.625" style="27" customWidth="1"/>
+    <col min="1546" max="1792" width="8.875" style="27"/>
+    <col min="1793" max="1793" width="3.125" style="27" customWidth="1"/>
+    <col min="1794" max="1794" width="9.75" style="27" customWidth="1"/>
+    <col min="1795" max="1795" width="40.125" style="27" customWidth="1"/>
+    <col min="1796" max="1796" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1798" width="21.625" style="27" customWidth="1"/>
+    <col min="1799" max="1799" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="10.125" style="27" customWidth="1"/>
+    <col min="1801" max="1801" width="11.625" style="27" customWidth="1"/>
+    <col min="1802" max="2048" width="8.875" style="27"/>
+    <col min="2049" max="2049" width="3.125" style="27" customWidth="1"/>
+    <col min="2050" max="2050" width="9.75" style="27" customWidth="1"/>
+    <col min="2051" max="2051" width="40.125" style="27" customWidth="1"/>
+    <col min="2052" max="2052" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2054" width="21.625" style="27" customWidth="1"/>
+    <col min="2055" max="2055" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="10.125" style="27" customWidth="1"/>
+    <col min="2057" max="2057" width="11.625" style="27" customWidth="1"/>
+    <col min="2058" max="2304" width="8.875" style="27"/>
+    <col min="2305" max="2305" width="3.125" style="27" customWidth="1"/>
+    <col min="2306" max="2306" width="9.75" style="27" customWidth="1"/>
+    <col min="2307" max="2307" width="40.125" style="27" customWidth="1"/>
+    <col min="2308" max="2308" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2310" width="21.625" style="27" customWidth="1"/>
+    <col min="2311" max="2311" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="10.125" style="27" customWidth="1"/>
+    <col min="2313" max="2313" width="11.625" style="27" customWidth="1"/>
+    <col min="2314" max="2560" width="8.875" style="27"/>
+    <col min="2561" max="2561" width="3.125" style="27" customWidth="1"/>
+    <col min="2562" max="2562" width="9.75" style="27" customWidth="1"/>
+    <col min="2563" max="2563" width="40.125" style="27" customWidth="1"/>
+    <col min="2564" max="2564" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2566" width="21.625" style="27" customWidth="1"/>
+    <col min="2567" max="2567" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="10.125" style="27" customWidth="1"/>
+    <col min="2569" max="2569" width="11.625" style="27" customWidth="1"/>
+    <col min="2570" max="2816" width="8.875" style="27"/>
+    <col min="2817" max="2817" width="3.125" style="27" customWidth="1"/>
+    <col min="2818" max="2818" width="9.75" style="27" customWidth="1"/>
+    <col min="2819" max="2819" width="40.125" style="27" customWidth="1"/>
+    <col min="2820" max="2820" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2822" width="21.625" style="27" customWidth="1"/>
+    <col min="2823" max="2823" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="10.125" style="27" customWidth="1"/>
+    <col min="2825" max="2825" width="11.625" style="27" customWidth="1"/>
+    <col min="2826" max="3072" width="8.875" style="27"/>
+    <col min="3073" max="3073" width="3.125" style="27" customWidth="1"/>
+    <col min="3074" max="3074" width="9.75" style="27" customWidth="1"/>
+    <col min="3075" max="3075" width="40.125" style="27" customWidth="1"/>
+    <col min="3076" max="3076" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3078" width="21.625" style="27" customWidth="1"/>
+    <col min="3079" max="3079" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="10.125" style="27" customWidth="1"/>
+    <col min="3081" max="3081" width="11.625" style="27" customWidth="1"/>
+    <col min="3082" max="3328" width="8.875" style="27"/>
+    <col min="3329" max="3329" width="3.125" style="27" customWidth="1"/>
+    <col min="3330" max="3330" width="9.75" style="27" customWidth="1"/>
+    <col min="3331" max="3331" width="40.125" style="27" customWidth="1"/>
+    <col min="3332" max="3332" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3334" width="21.625" style="27" customWidth="1"/>
+    <col min="3335" max="3335" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="10.125" style="27" customWidth="1"/>
+    <col min="3337" max="3337" width="11.625" style="27" customWidth="1"/>
+    <col min="3338" max="3584" width="8.875" style="27"/>
+    <col min="3585" max="3585" width="3.125" style="27" customWidth="1"/>
+    <col min="3586" max="3586" width="9.75" style="27" customWidth="1"/>
+    <col min="3587" max="3587" width="40.125" style="27" customWidth="1"/>
+    <col min="3588" max="3588" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3590" width="21.625" style="27" customWidth="1"/>
+    <col min="3591" max="3591" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="10.125" style="27" customWidth="1"/>
+    <col min="3593" max="3593" width="11.625" style="27" customWidth="1"/>
+    <col min="3594" max="3840" width="8.875" style="27"/>
+    <col min="3841" max="3841" width="3.125" style="27" customWidth="1"/>
+    <col min="3842" max="3842" width="9.75" style="27" customWidth="1"/>
+    <col min="3843" max="3843" width="40.125" style="27" customWidth="1"/>
+    <col min="3844" max="3844" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3846" width="21.625" style="27" customWidth="1"/>
+    <col min="3847" max="3847" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="10.125" style="27" customWidth="1"/>
+    <col min="3849" max="3849" width="11.625" style="27" customWidth="1"/>
+    <col min="3850" max="4096" width="8.875" style="27"/>
+    <col min="4097" max="4097" width="3.125" style="27" customWidth="1"/>
+    <col min="4098" max="4098" width="9.75" style="27" customWidth="1"/>
+    <col min="4099" max="4099" width="40.125" style="27" customWidth="1"/>
+    <col min="4100" max="4100" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4102" width="21.625" style="27" customWidth="1"/>
+    <col min="4103" max="4103" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="10.125" style="27" customWidth="1"/>
+    <col min="4105" max="4105" width="11.625" style="27" customWidth="1"/>
+    <col min="4106" max="4352" width="8.875" style="27"/>
+    <col min="4353" max="4353" width="3.125" style="27" customWidth="1"/>
+    <col min="4354" max="4354" width="9.75" style="27" customWidth="1"/>
+    <col min="4355" max="4355" width="40.125" style="27" customWidth="1"/>
+    <col min="4356" max="4356" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4358" width="21.625" style="27" customWidth="1"/>
+    <col min="4359" max="4359" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="10.125" style="27" customWidth="1"/>
+    <col min="4361" max="4361" width="11.625" style="27" customWidth="1"/>
+    <col min="4362" max="4608" width="8.875" style="27"/>
+    <col min="4609" max="4609" width="3.125" style="27" customWidth="1"/>
+    <col min="4610" max="4610" width="9.75" style="27" customWidth="1"/>
+    <col min="4611" max="4611" width="40.125" style="27" customWidth="1"/>
+    <col min="4612" max="4612" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4614" width="21.625" style="27" customWidth="1"/>
+    <col min="4615" max="4615" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="10.125" style="27" customWidth="1"/>
+    <col min="4617" max="4617" width="11.625" style="27" customWidth="1"/>
+    <col min="4618" max="4864" width="8.875" style="27"/>
+    <col min="4865" max="4865" width="3.125" style="27" customWidth="1"/>
+    <col min="4866" max="4866" width="9.75" style="27" customWidth="1"/>
+    <col min="4867" max="4867" width="40.125" style="27" customWidth="1"/>
+    <col min="4868" max="4868" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4870" width="21.625" style="27" customWidth="1"/>
+    <col min="4871" max="4871" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="10.125" style="27" customWidth="1"/>
+    <col min="4873" max="4873" width="11.625" style="27" customWidth="1"/>
+    <col min="4874" max="5120" width="8.875" style="27"/>
+    <col min="5121" max="5121" width="3.125" style="27" customWidth="1"/>
+    <col min="5122" max="5122" width="9.75" style="27" customWidth="1"/>
+    <col min="5123" max="5123" width="40.125" style="27" customWidth="1"/>
+    <col min="5124" max="5124" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5126" width="21.625" style="27" customWidth="1"/>
+    <col min="5127" max="5127" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="10.125" style="27" customWidth="1"/>
+    <col min="5129" max="5129" width="11.625" style="27" customWidth="1"/>
+    <col min="5130" max="5376" width="8.875" style="27"/>
+    <col min="5377" max="5377" width="3.125" style="27" customWidth="1"/>
+    <col min="5378" max="5378" width="9.75" style="27" customWidth="1"/>
+    <col min="5379" max="5379" width="40.125" style="27" customWidth="1"/>
+    <col min="5380" max="5380" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5382" width="21.625" style="27" customWidth="1"/>
+    <col min="5383" max="5383" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="10.125" style="27" customWidth="1"/>
+    <col min="5385" max="5385" width="11.625" style="27" customWidth="1"/>
+    <col min="5386" max="5632" width="8.875" style="27"/>
+    <col min="5633" max="5633" width="3.125" style="27" customWidth="1"/>
+    <col min="5634" max="5634" width="9.75" style="27" customWidth="1"/>
+    <col min="5635" max="5635" width="40.125" style="27" customWidth="1"/>
+    <col min="5636" max="5636" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5638" width="21.625" style="27" customWidth="1"/>
+    <col min="5639" max="5639" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="10.125" style="27" customWidth="1"/>
+    <col min="5641" max="5641" width="11.625" style="27" customWidth="1"/>
+    <col min="5642" max="5888" width="8.875" style="27"/>
+    <col min="5889" max="5889" width="3.125" style="27" customWidth="1"/>
+    <col min="5890" max="5890" width="9.75" style="27" customWidth="1"/>
+    <col min="5891" max="5891" width="40.125" style="27" customWidth="1"/>
+    <col min="5892" max="5892" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5894" width="21.625" style="27" customWidth="1"/>
+    <col min="5895" max="5895" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="10.125" style="27" customWidth="1"/>
+    <col min="5897" max="5897" width="11.625" style="27" customWidth="1"/>
+    <col min="5898" max="6144" width="8.875" style="27"/>
+    <col min="6145" max="6145" width="3.125" style="27" customWidth="1"/>
+    <col min="6146" max="6146" width="9.75" style="27" customWidth="1"/>
+    <col min="6147" max="6147" width="40.125" style="27" customWidth="1"/>
+    <col min="6148" max="6148" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6150" width="21.625" style="27" customWidth="1"/>
+    <col min="6151" max="6151" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="10.125" style="27" customWidth="1"/>
+    <col min="6153" max="6153" width="11.625" style="27" customWidth="1"/>
+    <col min="6154" max="6400" width="8.875" style="27"/>
+    <col min="6401" max="6401" width="3.125" style="27" customWidth="1"/>
+    <col min="6402" max="6402" width="9.75" style="27" customWidth="1"/>
+    <col min="6403" max="6403" width="40.125" style="27" customWidth="1"/>
+    <col min="6404" max="6404" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6406" width="21.625" style="27" customWidth="1"/>
+    <col min="6407" max="6407" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="10.125" style="27" customWidth="1"/>
+    <col min="6409" max="6409" width="11.625" style="27" customWidth="1"/>
+    <col min="6410" max="6656" width="8.875" style="27"/>
+    <col min="6657" max="6657" width="3.125" style="27" customWidth="1"/>
+    <col min="6658" max="6658" width="9.75" style="27" customWidth="1"/>
+    <col min="6659" max="6659" width="40.125" style="27" customWidth="1"/>
+    <col min="6660" max="6660" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6662" width="21.625" style="27" customWidth="1"/>
+    <col min="6663" max="6663" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="10.125" style="27" customWidth="1"/>
+    <col min="6665" max="6665" width="11.625" style="27" customWidth="1"/>
+    <col min="6666" max="6912" width="8.875" style="27"/>
+    <col min="6913" max="6913" width="3.125" style="27" customWidth="1"/>
+    <col min="6914" max="6914" width="9.75" style="27" customWidth="1"/>
+    <col min="6915" max="6915" width="40.125" style="27" customWidth="1"/>
+    <col min="6916" max="6916" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6918" width="21.625" style="27" customWidth="1"/>
+    <col min="6919" max="6919" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="10.125" style="27" customWidth="1"/>
+    <col min="6921" max="6921" width="11.625" style="27" customWidth="1"/>
+    <col min="6922" max="7168" width="8.875" style="27"/>
+    <col min="7169" max="7169" width="3.125" style="27" customWidth="1"/>
+    <col min="7170" max="7170" width="9.75" style="27" customWidth="1"/>
+    <col min="7171" max="7171" width="40.125" style="27" customWidth="1"/>
+    <col min="7172" max="7172" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7174" width="21.625" style="27" customWidth="1"/>
+    <col min="7175" max="7175" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="10.125" style="27" customWidth="1"/>
+    <col min="7177" max="7177" width="11.625" style="27" customWidth="1"/>
+    <col min="7178" max="7424" width="8.875" style="27"/>
+    <col min="7425" max="7425" width="3.125" style="27" customWidth="1"/>
+    <col min="7426" max="7426" width="9.75" style="27" customWidth="1"/>
+    <col min="7427" max="7427" width="40.125" style="27" customWidth="1"/>
+    <col min="7428" max="7428" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7430" width="21.625" style="27" customWidth="1"/>
+    <col min="7431" max="7431" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="10.125" style="27" customWidth="1"/>
+    <col min="7433" max="7433" width="11.625" style="27" customWidth="1"/>
+    <col min="7434" max="7680" width="8.875" style="27"/>
+    <col min="7681" max="7681" width="3.125" style="27" customWidth="1"/>
+    <col min="7682" max="7682" width="9.75" style="27" customWidth="1"/>
+    <col min="7683" max="7683" width="40.125" style="27" customWidth="1"/>
+    <col min="7684" max="7684" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7686" width="21.625" style="27" customWidth="1"/>
+    <col min="7687" max="7687" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="10.125" style="27" customWidth="1"/>
+    <col min="7689" max="7689" width="11.625" style="27" customWidth="1"/>
+    <col min="7690" max="7936" width="8.875" style="27"/>
+    <col min="7937" max="7937" width="3.125" style="27" customWidth="1"/>
+    <col min="7938" max="7938" width="9.75" style="27" customWidth="1"/>
+    <col min="7939" max="7939" width="40.125" style="27" customWidth="1"/>
+    <col min="7940" max="7940" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7942" width="21.625" style="27" customWidth="1"/>
+    <col min="7943" max="7943" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="10.125" style="27" customWidth="1"/>
+    <col min="7945" max="7945" width="11.625" style="27" customWidth="1"/>
+    <col min="7946" max="8192" width="8.875" style="27"/>
+    <col min="8193" max="8193" width="3.125" style="27" customWidth="1"/>
+    <col min="8194" max="8194" width="9.75" style="27" customWidth="1"/>
+    <col min="8195" max="8195" width="40.125" style="27" customWidth="1"/>
+    <col min="8196" max="8196" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8198" width="21.625" style="27" customWidth="1"/>
+    <col min="8199" max="8199" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="10.125" style="27" customWidth="1"/>
+    <col min="8201" max="8201" width="11.625" style="27" customWidth="1"/>
+    <col min="8202" max="8448" width="8.875" style="27"/>
+    <col min="8449" max="8449" width="3.125" style="27" customWidth="1"/>
+    <col min="8450" max="8450" width="9.75" style="27" customWidth="1"/>
+    <col min="8451" max="8451" width="40.125" style="27" customWidth="1"/>
+    <col min="8452" max="8452" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8454" width="21.625" style="27" customWidth="1"/>
+    <col min="8455" max="8455" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="10.125" style="27" customWidth="1"/>
+    <col min="8457" max="8457" width="11.625" style="27" customWidth="1"/>
+    <col min="8458" max="8704" width="8.875" style="27"/>
+    <col min="8705" max="8705" width="3.125" style="27" customWidth="1"/>
+    <col min="8706" max="8706" width="9.75" style="27" customWidth="1"/>
+    <col min="8707" max="8707" width="40.125" style="27" customWidth="1"/>
+    <col min="8708" max="8708" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8710" width="21.625" style="27" customWidth="1"/>
+    <col min="8711" max="8711" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="10.125" style="27" customWidth="1"/>
+    <col min="8713" max="8713" width="11.625" style="27" customWidth="1"/>
+    <col min="8714" max="8960" width="8.875" style="27"/>
+    <col min="8961" max="8961" width="3.125" style="27" customWidth="1"/>
+    <col min="8962" max="8962" width="9.75" style="27" customWidth="1"/>
+    <col min="8963" max="8963" width="40.125" style="27" customWidth="1"/>
+    <col min="8964" max="8964" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8966" width="21.625" style="27" customWidth="1"/>
+    <col min="8967" max="8967" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="10.125" style="27" customWidth="1"/>
+    <col min="8969" max="8969" width="11.625" style="27" customWidth="1"/>
+    <col min="8970" max="9216" width="8.875" style="27"/>
+    <col min="9217" max="9217" width="3.125" style="27" customWidth="1"/>
+    <col min="9218" max="9218" width="9.75" style="27" customWidth="1"/>
+    <col min="9219" max="9219" width="40.125" style="27" customWidth="1"/>
+    <col min="9220" max="9220" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9222" width="21.625" style="27" customWidth="1"/>
+    <col min="9223" max="9223" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="10.125" style="27" customWidth="1"/>
+    <col min="9225" max="9225" width="11.625" style="27" customWidth="1"/>
+    <col min="9226" max="9472" width="8.875" style="27"/>
+    <col min="9473" max="9473" width="3.125" style="27" customWidth="1"/>
+    <col min="9474" max="9474" width="9.75" style="27" customWidth="1"/>
+    <col min="9475" max="9475" width="40.125" style="27" customWidth="1"/>
+    <col min="9476" max="9476" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9478" width="21.625" style="27" customWidth="1"/>
+    <col min="9479" max="9479" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="10.125" style="27" customWidth="1"/>
+    <col min="9481" max="9481" width="11.625" style="27" customWidth="1"/>
+    <col min="9482" max="9728" width="8.875" style="27"/>
+    <col min="9729" max="9729" width="3.125" style="27" customWidth="1"/>
+    <col min="9730" max="9730" width="9.75" style="27" customWidth="1"/>
+    <col min="9731" max="9731" width="40.125" style="27" customWidth="1"/>
+    <col min="9732" max="9732" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9734" width="21.625" style="27" customWidth="1"/>
+    <col min="9735" max="9735" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="10.125" style="27" customWidth="1"/>
+    <col min="9737" max="9737" width="11.625" style="27" customWidth="1"/>
+    <col min="9738" max="9984" width="8.875" style="27"/>
+    <col min="9985" max="9985" width="3.125" style="27" customWidth="1"/>
+    <col min="9986" max="9986" width="9.75" style="27" customWidth="1"/>
+    <col min="9987" max="9987" width="40.125" style="27" customWidth="1"/>
+    <col min="9988" max="9988" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9990" width="21.625" style="27" customWidth="1"/>
+    <col min="9991" max="9991" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="10.125" style="27" customWidth="1"/>
+    <col min="9993" max="9993" width="11.625" style="27" customWidth="1"/>
+    <col min="9994" max="10240" width="8.875" style="27"/>
+    <col min="10241" max="10241" width="3.125" style="27" customWidth="1"/>
+    <col min="10242" max="10242" width="9.75" style="27" customWidth="1"/>
+    <col min="10243" max="10243" width="40.125" style="27" customWidth="1"/>
+    <col min="10244" max="10244" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10246" width="21.625" style="27" customWidth="1"/>
+    <col min="10247" max="10247" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="10.125" style="27" customWidth="1"/>
+    <col min="10249" max="10249" width="11.625" style="27" customWidth="1"/>
+    <col min="10250" max="10496" width="8.875" style="27"/>
+    <col min="10497" max="10497" width="3.125" style="27" customWidth="1"/>
+    <col min="10498" max="10498" width="9.75" style="27" customWidth="1"/>
+    <col min="10499" max="10499" width="40.125" style="27" customWidth="1"/>
+    <col min="10500" max="10500" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10502" width="21.625" style="27" customWidth="1"/>
+    <col min="10503" max="10503" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="10.125" style="27" customWidth="1"/>
+    <col min="10505" max="10505" width="11.625" style="27" customWidth="1"/>
+    <col min="10506" max="10752" width="8.875" style="27"/>
+    <col min="10753" max="10753" width="3.125" style="27" customWidth="1"/>
+    <col min="10754" max="10754" width="9.75" style="27" customWidth="1"/>
+    <col min="10755" max="10755" width="40.125" style="27" customWidth="1"/>
+    <col min="10756" max="10756" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10758" width="21.625" style="27" customWidth="1"/>
+    <col min="10759" max="10759" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="10.125" style="27" customWidth="1"/>
+    <col min="10761" max="10761" width="11.625" style="27" customWidth="1"/>
+    <col min="10762" max="11008" width="8.875" style="27"/>
+    <col min="11009" max="11009" width="3.125" style="27" customWidth="1"/>
+    <col min="11010" max="11010" width="9.75" style="27" customWidth="1"/>
+    <col min="11011" max="11011" width="40.125" style="27" customWidth="1"/>
+    <col min="11012" max="11012" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11014" width="21.625" style="27" customWidth="1"/>
+    <col min="11015" max="11015" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="10.125" style="27" customWidth="1"/>
+    <col min="11017" max="11017" width="11.625" style="27" customWidth="1"/>
+    <col min="11018" max="11264" width="8.875" style="27"/>
+    <col min="11265" max="11265" width="3.125" style="27" customWidth="1"/>
+    <col min="11266" max="11266" width="9.75" style="27" customWidth="1"/>
+    <col min="11267" max="11267" width="40.125" style="27" customWidth="1"/>
+    <col min="11268" max="11268" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11270" width="21.625" style="27" customWidth="1"/>
+    <col min="11271" max="11271" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="10.125" style="27" customWidth="1"/>
+    <col min="11273" max="11273" width="11.625" style="27" customWidth="1"/>
+    <col min="11274" max="11520" width="8.875" style="27"/>
+    <col min="11521" max="11521" width="3.125" style="27" customWidth="1"/>
+    <col min="11522" max="11522" width="9.75" style="27" customWidth="1"/>
+    <col min="11523" max="11523" width="40.125" style="27" customWidth="1"/>
+    <col min="11524" max="11524" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11526" width="21.625" style="27" customWidth="1"/>
+    <col min="11527" max="11527" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="10.125" style="27" customWidth="1"/>
+    <col min="11529" max="11529" width="11.625" style="27" customWidth="1"/>
+    <col min="11530" max="11776" width="8.875" style="27"/>
+    <col min="11777" max="11777" width="3.125" style="27" customWidth="1"/>
+    <col min="11778" max="11778" width="9.75" style="27" customWidth="1"/>
+    <col min="11779" max="11779" width="40.125" style="27" customWidth="1"/>
+    <col min="11780" max="11780" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11782" width="21.625" style="27" customWidth="1"/>
+    <col min="11783" max="11783" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="10.125" style="27" customWidth="1"/>
+    <col min="11785" max="11785" width="11.625" style="27" customWidth="1"/>
+    <col min="11786" max="12032" width="8.875" style="27"/>
+    <col min="12033" max="12033" width="3.125" style="27" customWidth="1"/>
+    <col min="12034" max="12034" width="9.75" style="27" customWidth="1"/>
+    <col min="12035" max="12035" width="40.125" style="27" customWidth="1"/>
+    <col min="12036" max="12036" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12038" width="21.625" style="27" customWidth="1"/>
+    <col min="12039" max="12039" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="10.125" style="27" customWidth="1"/>
+    <col min="12041" max="12041" width="11.625" style="27" customWidth="1"/>
+    <col min="12042" max="12288" width="8.875" style="27"/>
+    <col min="12289" max="12289" width="3.125" style="27" customWidth="1"/>
+    <col min="12290" max="12290" width="9.75" style="27" customWidth="1"/>
+    <col min="12291" max="12291" width="40.125" style="27" customWidth="1"/>
+    <col min="12292" max="12292" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12294" width="21.625" style="27" customWidth="1"/>
+    <col min="12295" max="12295" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="10.125" style="27" customWidth="1"/>
+    <col min="12297" max="12297" width="11.625" style="27" customWidth="1"/>
+    <col min="12298" max="12544" width="8.875" style="27"/>
+    <col min="12545" max="12545" width="3.125" style="27" customWidth="1"/>
+    <col min="12546" max="12546" width="9.75" style="27" customWidth="1"/>
+    <col min="12547" max="12547" width="40.125" style="27" customWidth="1"/>
+    <col min="12548" max="12548" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12550" width="21.625" style="27" customWidth="1"/>
+    <col min="12551" max="12551" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="10.125" style="27" customWidth="1"/>
+    <col min="12553" max="12553" width="11.625" style="27" customWidth="1"/>
+    <col min="12554" max="12800" width="8.875" style="27"/>
+    <col min="12801" max="12801" width="3.125" style="27" customWidth="1"/>
+    <col min="12802" max="12802" width="9.75" style="27" customWidth="1"/>
+    <col min="12803" max="12803" width="40.125" style="27" customWidth="1"/>
+    <col min="12804" max="12804" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12806" width="21.625" style="27" customWidth="1"/>
+    <col min="12807" max="12807" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="10.125" style="27" customWidth="1"/>
+    <col min="12809" max="12809" width="11.625" style="27" customWidth="1"/>
+    <col min="12810" max="13056" width="8.875" style="27"/>
+    <col min="13057" max="13057" width="3.125" style="27" customWidth="1"/>
+    <col min="13058" max="13058" width="9.75" style="27" customWidth="1"/>
+    <col min="13059" max="13059" width="40.125" style="27" customWidth="1"/>
+    <col min="13060" max="13060" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13062" width="21.625" style="27" customWidth="1"/>
+    <col min="13063" max="13063" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="10.125" style="27" customWidth="1"/>
+    <col min="13065" max="13065" width="11.625" style="27" customWidth="1"/>
+    <col min="13066" max="13312" width="8.875" style="27"/>
+    <col min="13313" max="13313" width="3.125" style="27" customWidth="1"/>
+    <col min="13314" max="13314" width="9.75" style="27" customWidth="1"/>
+    <col min="13315" max="13315" width="40.125" style="27" customWidth="1"/>
+    <col min="13316" max="13316" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13318" width="21.625" style="27" customWidth="1"/>
+    <col min="13319" max="13319" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="10.125" style="27" customWidth="1"/>
+    <col min="13321" max="13321" width="11.625" style="27" customWidth="1"/>
+    <col min="13322" max="13568" width="8.875" style="27"/>
+    <col min="13569" max="13569" width="3.125" style="27" customWidth="1"/>
+    <col min="13570" max="13570" width="9.75" style="27" customWidth="1"/>
+    <col min="13571" max="13571" width="40.125" style="27" customWidth="1"/>
+    <col min="13572" max="13572" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13574" width="21.625" style="27" customWidth="1"/>
+    <col min="13575" max="13575" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="10.125" style="27" customWidth="1"/>
+    <col min="13577" max="13577" width="11.625" style="27" customWidth="1"/>
+    <col min="13578" max="13824" width="8.875" style="27"/>
+    <col min="13825" max="13825" width="3.125" style="27" customWidth="1"/>
+    <col min="13826" max="13826" width="9.75" style="27" customWidth="1"/>
+    <col min="13827" max="13827" width="40.125" style="27" customWidth="1"/>
+    <col min="13828" max="13828" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13830" width="21.625" style="27" customWidth="1"/>
+    <col min="13831" max="13831" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="10.125" style="27" customWidth="1"/>
+    <col min="13833" max="13833" width="11.625" style="27" customWidth="1"/>
+    <col min="13834" max="14080" width="8.875" style="27"/>
+    <col min="14081" max="14081" width="3.125" style="27" customWidth="1"/>
+    <col min="14082" max="14082" width="9.75" style="27" customWidth="1"/>
+    <col min="14083" max="14083" width="40.125" style="27" customWidth="1"/>
+    <col min="14084" max="14084" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14086" width="21.625" style="27" customWidth="1"/>
+    <col min="14087" max="14087" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="10.125" style="27" customWidth="1"/>
+    <col min="14089" max="14089" width="11.625" style="27" customWidth="1"/>
+    <col min="14090" max="14336" width="8.875" style="27"/>
+    <col min="14337" max="14337" width="3.125" style="27" customWidth="1"/>
+    <col min="14338" max="14338" width="9.75" style="27" customWidth="1"/>
+    <col min="14339" max="14339" width="40.125" style="27" customWidth="1"/>
+    <col min="14340" max="14340" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14342" width="21.625" style="27" customWidth="1"/>
+    <col min="14343" max="14343" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="10.125" style="27" customWidth="1"/>
+    <col min="14345" max="14345" width="11.625" style="27" customWidth="1"/>
+    <col min="14346" max="14592" width="8.875" style="27"/>
+    <col min="14593" max="14593" width="3.125" style="27" customWidth="1"/>
+    <col min="14594" max="14594" width="9.75" style="27" customWidth="1"/>
+    <col min="14595" max="14595" width="40.125" style="27" customWidth="1"/>
+    <col min="14596" max="14596" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14598" width="21.625" style="27" customWidth="1"/>
+    <col min="14599" max="14599" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="10.125" style="27" customWidth="1"/>
+    <col min="14601" max="14601" width="11.625" style="27" customWidth="1"/>
+    <col min="14602" max="14848" width="8.875" style="27"/>
+    <col min="14849" max="14849" width="3.125" style="27" customWidth="1"/>
+    <col min="14850" max="14850" width="9.75" style="27" customWidth="1"/>
+    <col min="14851" max="14851" width="40.125" style="27" customWidth="1"/>
+    <col min="14852" max="14852" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14854" width="21.625" style="27" customWidth="1"/>
+    <col min="14855" max="14855" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="10.125" style="27" customWidth="1"/>
+    <col min="14857" max="14857" width="11.625" style="27" customWidth="1"/>
+    <col min="14858" max="15104" width="8.875" style="27"/>
+    <col min="15105" max="15105" width="3.125" style="27" customWidth="1"/>
+    <col min="15106" max="15106" width="9.75" style="27" customWidth="1"/>
+    <col min="15107" max="15107" width="40.125" style="27" customWidth="1"/>
+    <col min="15108" max="15108" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15110" width="21.625" style="27" customWidth="1"/>
+    <col min="15111" max="15111" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="10.125" style="27" customWidth="1"/>
+    <col min="15113" max="15113" width="11.625" style="27" customWidth="1"/>
+    <col min="15114" max="15360" width="8.875" style="27"/>
+    <col min="15361" max="15361" width="3.125" style="27" customWidth="1"/>
+    <col min="15362" max="15362" width="9.75" style="27" customWidth="1"/>
+    <col min="15363" max="15363" width="40.125" style="27" customWidth="1"/>
+    <col min="15364" max="15364" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15366" width="21.625" style="27" customWidth="1"/>
+    <col min="15367" max="15367" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="10.125" style="27" customWidth="1"/>
+    <col min="15369" max="15369" width="11.625" style="27" customWidth="1"/>
+    <col min="15370" max="15616" width="8.875" style="27"/>
+    <col min="15617" max="15617" width="3.125" style="27" customWidth="1"/>
+    <col min="15618" max="15618" width="9.75" style="27" customWidth="1"/>
+    <col min="15619" max="15619" width="40.125" style="27" customWidth="1"/>
+    <col min="15620" max="15620" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15622" width="21.625" style="27" customWidth="1"/>
+    <col min="15623" max="15623" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="10.125" style="27" customWidth="1"/>
+    <col min="15625" max="15625" width="11.625" style="27" customWidth="1"/>
+    <col min="15626" max="15872" width="8.875" style="27"/>
+    <col min="15873" max="15873" width="3.125" style="27" customWidth="1"/>
+    <col min="15874" max="15874" width="9.75" style="27" customWidth="1"/>
+    <col min="15875" max="15875" width="40.125" style="27" customWidth="1"/>
+    <col min="15876" max="15876" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15878" width="21.625" style="27" customWidth="1"/>
+    <col min="15879" max="15879" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="10.125" style="27" customWidth="1"/>
+    <col min="15881" max="15881" width="11.625" style="27" customWidth="1"/>
+    <col min="15882" max="16128" width="8.875" style="27"/>
+    <col min="16129" max="16129" width="3.125" style="27" customWidth="1"/>
+    <col min="16130" max="16130" width="9.75" style="27" customWidth="1"/>
+    <col min="16131" max="16131" width="40.125" style="27" customWidth="1"/>
+    <col min="16132" max="16132" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16134" width="21.625" style="27" customWidth="1"/>
+    <col min="16135" max="16135" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="10.125" style="27" customWidth="1"/>
+    <col min="16137" max="16137" width="11.625" style="27" customWidth="1"/>
+    <col min="16138" max="16384" width="8.875" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="37" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="104" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="105" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="105" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="105" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="105" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="105" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="106" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A11" s="38"/>
+      <c r="B11" s="64" t="s">
+        <v>221</v>
+      </c>
+      <c r="C11" s="114" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="G11" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="H11" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="I11" s="76">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="38"/>
+      <c r="B12" s="64" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="114" t="s">
+        <v>217</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="I12" s="76">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="38"/>
+      <c r="B13" s="64" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="114"/>
+      <c r="D13" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="I13" s="76">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="38"/>
+      <c r="B14" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="114"/>
+      <c r="D14" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="I14" s="76">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="38"/>
+      <c r="B15" s="64" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" s="114"/>
+      <c r="D15" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="I15" s="76">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A16"/>
+      <c r="B16" s="64" t="s">
+        <v>226</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>211</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="I16" s="76">
+        <v>45433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="72"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="77"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="119" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G17">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="15"/>
+    <col min="2" max="2" width="9.375" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="15" customWidth="1"/>
+    <col min="5" max="257" width="9" style="15"/>
+    <col min="258" max="258" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="15.625" style="15" customWidth="1"/>
+    <col min="260" max="260" width="7.625" style="15" customWidth="1"/>
+    <col min="261" max="513" width="9" style="15"/>
+    <col min="514" max="514" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="15.625" style="15" customWidth="1"/>
+    <col min="516" max="516" width="7.625" style="15" customWidth="1"/>
+    <col min="517" max="769" width="9" style="15"/>
+    <col min="770" max="770" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="15.625" style="15" customWidth="1"/>
+    <col min="772" max="772" width="7.625" style="15" customWidth="1"/>
+    <col min="773" max="1025" width="9" style="15"/>
+    <col min="1026" max="1026" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="15.625" style="15" customWidth="1"/>
+    <col min="1028" max="1028" width="7.625" style="15" customWidth="1"/>
+    <col min="1029" max="1281" width="9" style="15"/>
+    <col min="1282" max="1282" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="15.625" style="15" customWidth="1"/>
+    <col min="1284" max="1284" width="7.625" style="15" customWidth="1"/>
+    <col min="1285" max="1537" width="9" style="15"/>
+    <col min="1538" max="1538" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="15.625" style="15" customWidth="1"/>
+    <col min="1540" max="1540" width="7.625" style="15" customWidth="1"/>
+    <col min="1541" max="1793" width="9" style="15"/>
+    <col min="1794" max="1794" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="15.625" style="15" customWidth="1"/>
+    <col min="1796" max="1796" width="7.625" style="15" customWidth="1"/>
+    <col min="1797" max="2049" width="9" style="15"/>
+    <col min="2050" max="2050" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="15.625" style="15" customWidth="1"/>
+    <col min="2052" max="2052" width="7.625" style="15" customWidth="1"/>
+    <col min="2053" max="2305" width="9" style="15"/>
+    <col min="2306" max="2306" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="15.625" style="15" customWidth="1"/>
+    <col min="2308" max="2308" width="7.625" style="15" customWidth="1"/>
+    <col min="2309" max="2561" width="9" style="15"/>
+    <col min="2562" max="2562" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="15.625" style="15" customWidth="1"/>
+    <col min="2564" max="2564" width="7.625" style="15" customWidth="1"/>
+    <col min="2565" max="2817" width="9" style="15"/>
+    <col min="2818" max="2818" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="15.625" style="15" customWidth="1"/>
+    <col min="2820" max="2820" width="7.625" style="15" customWidth="1"/>
+    <col min="2821" max="3073" width="9" style="15"/>
+    <col min="3074" max="3074" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="15.625" style="15" customWidth="1"/>
+    <col min="3076" max="3076" width="7.625" style="15" customWidth="1"/>
+    <col min="3077" max="3329" width="9" style="15"/>
+    <col min="3330" max="3330" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="15.625" style="15" customWidth="1"/>
+    <col min="3332" max="3332" width="7.625" style="15" customWidth="1"/>
+    <col min="3333" max="3585" width="9" style="15"/>
+    <col min="3586" max="3586" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="15.625" style="15" customWidth="1"/>
+    <col min="3588" max="3588" width="7.625" style="15" customWidth="1"/>
+    <col min="3589" max="3841" width="9" style="15"/>
+    <col min="3842" max="3842" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="15.625" style="15" customWidth="1"/>
+    <col min="3844" max="3844" width="7.625" style="15" customWidth="1"/>
+    <col min="3845" max="4097" width="9" style="15"/>
+    <col min="4098" max="4098" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="15.625" style="15" customWidth="1"/>
+    <col min="4100" max="4100" width="7.625" style="15" customWidth="1"/>
+    <col min="4101" max="4353" width="9" style="15"/>
+    <col min="4354" max="4354" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="15.625" style="15" customWidth="1"/>
+    <col min="4356" max="4356" width="7.625" style="15" customWidth="1"/>
+    <col min="4357" max="4609" width="9" style="15"/>
+    <col min="4610" max="4610" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="15.625" style="15" customWidth="1"/>
+    <col min="4612" max="4612" width="7.625" style="15" customWidth="1"/>
+    <col min="4613" max="4865" width="9" style="15"/>
+    <col min="4866" max="4866" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="15.625" style="15" customWidth="1"/>
+    <col min="4868" max="4868" width="7.625" style="15" customWidth="1"/>
+    <col min="4869" max="5121" width="9" style="15"/>
+    <col min="5122" max="5122" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="15.625" style="15" customWidth="1"/>
+    <col min="5124" max="5124" width="7.625" style="15" customWidth="1"/>
+    <col min="5125" max="5377" width="9" style="15"/>
+    <col min="5378" max="5378" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="15.625" style="15" customWidth="1"/>
+    <col min="5380" max="5380" width="7.625" style="15" customWidth="1"/>
+    <col min="5381" max="5633" width="9" style="15"/>
+    <col min="5634" max="5634" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="15.625" style="15" customWidth="1"/>
+    <col min="5636" max="5636" width="7.625" style="15" customWidth="1"/>
+    <col min="5637" max="5889" width="9" style="15"/>
+    <col min="5890" max="5890" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="15.625" style="15" customWidth="1"/>
+    <col min="5892" max="5892" width="7.625" style="15" customWidth="1"/>
+    <col min="5893" max="6145" width="9" style="15"/>
+    <col min="6146" max="6146" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="15.625" style="15" customWidth="1"/>
+    <col min="6148" max="6148" width="7.625" style="15" customWidth="1"/>
+    <col min="6149" max="6401" width="9" style="15"/>
+    <col min="6402" max="6402" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="15.625" style="15" customWidth="1"/>
+    <col min="6404" max="6404" width="7.625" style="15" customWidth="1"/>
+    <col min="6405" max="6657" width="9" style="15"/>
+    <col min="6658" max="6658" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="15.625" style="15" customWidth="1"/>
+    <col min="6660" max="6660" width="7.625" style="15" customWidth="1"/>
+    <col min="6661" max="6913" width="9" style="15"/>
+    <col min="6914" max="6914" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="15.625" style="15" customWidth="1"/>
+    <col min="6916" max="6916" width="7.625" style="15" customWidth="1"/>
+    <col min="6917" max="7169" width="9" style="15"/>
+    <col min="7170" max="7170" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="15.625" style="15" customWidth="1"/>
+    <col min="7172" max="7172" width="7.625" style="15" customWidth="1"/>
+    <col min="7173" max="7425" width="9" style="15"/>
+    <col min="7426" max="7426" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="15.625" style="15" customWidth="1"/>
+    <col min="7428" max="7428" width="7.625" style="15" customWidth="1"/>
+    <col min="7429" max="7681" width="9" style="15"/>
+    <col min="7682" max="7682" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="15.625" style="15" customWidth="1"/>
+    <col min="7684" max="7684" width="7.625" style="15" customWidth="1"/>
+    <col min="7685" max="7937" width="9" style="15"/>
+    <col min="7938" max="7938" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="15.625" style="15" customWidth="1"/>
+    <col min="7940" max="7940" width="7.625" style="15" customWidth="1"/>
+    <col min="7941" max="8193" width="9" style="15"/>
+    <col min="8194" max="8194" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="15.625" style="15" customWidth="1"/>
+    <col min="8196" max="8196" width="7.625" style="15" customWidth="1"/>
+    <col min="8197" max="8449" width="9" style="15"/>
+    <col min="8450" max="8450" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="15.625" style="15" customWidth="1"/>
+    <col min="8452" max="8452" width="7.625" style="15" customWidth="1"/>
+    <col min="8453" max="8705" width="9" style="15"/>
+    <col min="8706" max="8706" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="15.625" style="15" customWidth="1"/>
+    <col min="8708" max="8708" width="7.625" style="15" customWidth="1"/>
+    <col min="8709" max="8961" width="9" style="15"/>
+    <col min="8962" max="8962" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="15.625" style="15" customWidth="1"/>
+    <col min="8964" max="8964" width="7.625" style="15" customWidth="1"/>
+    <col min="8965" max="9217" width="9" style="15"/>
+    <col min="9218" max="9218" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="15.625" style="15" customWidth="1"/>
+    <col min="9220" max="9220" width="7.625" style="15" customWidth="1"/>
+    <col min="9221" max="9473" width="9" style="15"/>
+    <col min="9474" max="9474" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="15.625" style="15" customWidth="1"/>
+    <col min="9476" max="9476" width="7.625" style="15" customWidth="1"/>
+    <col min="9477" max="9729" width="9" style="15"/>
+    <col min="9730" max="9730" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="15.625" style="15" customWidth="1"/>
+    <col min="9732" max="9732" width="7.625" style="15" customWidth="1"/>
+    <col min="9733" max="9985" width="9" style="15"/>
+    <col min="9986" max="9986" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="15.625" style="15" customWidth="1"/>
+    <col min="9988" max="9988" width="7.625" style="15" customWidth="1"/>
+    <col min="9989" max="10241" width="9" style="15"/>
+    <col min="10242" max="10242" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="15.625" style="15" customWidth="1"/>
+    <col min="10244" max="10244" width="7.625" style="15" customWidth="1"/>
+    <col min="10245" max="10497" width="9" style="15"/>
+    <col min="10498" max="10498" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="15.625" style="15" customWidth="1"/>
+    <col min="10500" max="10500" width="7.625" style="15" customWidth="1"/>
+    <col min="10501" max="10753" width="9" style="15"/>
+    <col min="10754" max="10754" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="15.625" style="15" customWidth="1"/>
+    <col min="10756" max="10756" width="7.625" style="15" customWidth="1"/>
+    <col min="10757" max="11009" width="9" style="15"/>
+    <col min="11010" max="11010" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="15.625" style="15" customWidth="1"/>
+    <col min="11012" max="11012" width="7.625" style="15" customWidth="1"/>
+    <col min="11013" max="11265" width="9" style="15"/>
+    <col min="11266" max="11266" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="15.625" style="15" customWidth="1"/>
+    <col min="11268" max="11268" width="7.625" style="15" customWidth="1"/>
+    <col min="11269" max="11521" width="9" style="15"/>
+    <col min="11522" max="11522" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="15.625" style="15" customWidth="1"/>
+    <col min="11524" max="11524" width="7.625" style="15" customWidth="1"/>
+    <col min="11525" max="11777" width="9" style="15"/>
+    <col min="11778" max="11778" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="15.625" style="15" customWidth="1"/>
+    <col min="11780" max="11780" width="7.625" style="15" customWidth="1"/>
+    <col min="11781" max="12033" width="9" style="15"/>
+    <col min="12034" max="12034" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="15.625" style="15" customWidth="1"/>
+    <col min="12036" max="12036" width="7.625" style="15" customWidth="1"/>
+    <col min="12037" max="12289" width="9" style="15"/>
+    <col min="12290" max="12290" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="15.625" style="15" customWidth="1"/>
+    <col min="12292" max="12292" width="7.625" style="15" customWidth="1"/>
+    <col min="12293" max="12545" width="9" style="15"/>
+    <col min="12546" max="12546" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="15.625" style="15" customWidth="1"/>
+    <col min="12548" max="12548" width="7.625" style="15" customWidth="1"/>
+    <col min="12549" max="12801" width="9" style="15"/>
+    <col min="12802" max="12802" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="15.625" style="15" customWidth="1"/>
+    <col min="12804" max="12804" width="7.625" style="15" customWidth="1"/>
+    <col min="12805" max="13057" width="9" style="15"/>
+    <col min="13058" max="13058" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="15.625" style="15" customWidth="1"/>
+    <col min="13060" max="13060" width="7.625" style="15" customWidth="1"/>
+    <col min="13061" max="13313" width="9" style="15"/>
+    <col min="13314" max="13314" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="15.625" style="15" customWidth="1"/>
+    <col min="13316" max="13316" width="7.625" style="15" customWidth="1"/>
+    <col min="13317" max="13569" width="9" style="15"/>
+    <col min="13570" max="13570" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="15.625" style="15" customWidth="1"/>
+    <col min="13572" max="13572" width="7.625" style="15" customWidth="1"/>
+    <col min="13573" max="13825" width="9" style="15"/>
+    <col min="13826" max="13826" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="15.625" style="15" customWidth="1"/>
+    <col min="13828" max="13828" width="7.625" style="15" customWidth="1"/>
+    <col min="13829" max="14081" width="9" style="15"/>
+    <col min="14082" max="14082" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="15.625" style="15" customWidth="1"/>
+    <col min="14084" max="14084" width="7.625" style="15" customWidth="1"/>
+    <col min="14085" max="14337" width="9" style="15"/>
+    <col min="14338" max="14338" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="15.625" style="15" customWidth="1"/>
+    <col min="14340" max="14340" width="7.625" style="15" customWidth="1"/>
+    <col min="14341" max="14593" width="9" style="15"/>
+    <col min="14594" max="14594" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="15.625" style="15" customWidth="1"/>
+    <col min="14596" max="14596" width="7.625" style="15" customWidth="1"/>
+    <col min="14597" max="14849" width="9" style="15"/>
+    <col min="14850" max="14850" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="15.625" style="15" customWidth="1"/>
+    <col min="14852" max="14852" width="7.625" style="15" customWidth="1"/>
+    <col min="14853" max="15105" width="9" style="15"/>
+    <col min="15106" max="15106" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="15.625" style="15" customWidth="1"/>
+    <col min="15108" max="15108" width="7.625" style="15" customWidth="1"/>
+    <col min="15109" max="15361" width="9" style="15"/>
+    <col min="15362" max="15362" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="15.625" style="15" customWidth="1"/>
+    <col min="15364" max="15364" width="7.625" style="15" customWidth="1"/>
+    <col min="15365" max="15617" width="9" style="15"/>
+    <col min="15618" max="15618" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="15.625" style="15" customWidth="1"/>
+    <col min="15620" max="15620" width="7.625" style="15" customWidth="1"/>
+    <col min="15621" max="15873" width="9" style="15"/>
+    <col min="15874" max="15874" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="15.625" style="15" customWidth="1"/>
+    <col min="15876" max="15876" width="7.625" style="15" customWidth="1"/>
+    <col min="15877" max="16129" width="9" style="15"/>
+    <col min="16130" max="16130" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="15.625" style="15" customWidth="1"/>
+    <col min="16132" max="16132" width="7.625" style="15" customWidth="1"/>
+    <col min="16133" max="16384" width="9" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
+      <c r="H7" s="100"/>
+      <c r="I7" s="101"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="90">
+        <v>44921</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="91"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B9" s="90">
+        <v>44984</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="91"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B10" s="125">
+        <v>45561</v>
+      </c>
+      <c r="C10" s="126" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="127" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="128" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="91"/>
+    </row>
+    <row r="11" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="92"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="97"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="17"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="17"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="17"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="17"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.86614173228346458" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter xml:space="preserve">&amp;C&amp;10　
+&amp;R
+</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="3" width="9.125" style="27" customWidth="1"/>
@@ -22740,7 +24984,7 @@
     <col min="16137" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="6" customHeight="1">
+    <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -22750,51 +24994,51 @@
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25">
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" thickBot="1">
+    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="33" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="130" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="135" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="132" t="s">
+      <c r="D5" s="137" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="134" t="s">
+      <c r="E5" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="132" t="s">
+      <c r="F5" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="134" t="s">
+      <c r="G5" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="128" t="s">
+      <c r="H5" s="133" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" thickBot="1">
-      <c r="B6" s="131"/>
+    <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="136"/>
       <c r="C6" s="108" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="133"/>
-      <c r="E6" s="135"/>
-      <c r="F6" s="133"/>
-      <c r="G6" s="135"/>
-      <c r="H6" s="129"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="D6" s="138"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="134"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="66" t="s">
         <v>72</v>
       </c>
@@ -22805,7 +25049,7 @@
       <c r="G7" s="45"/>
       <c r="H7" s="67"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B8" s="68"/>
       <c r="C8" s="42"/>
       <c r="D8" s="44"/>
@@ -22814,7 +25058,7 @@
       <c r="G8" s="48"/>
       <c r="H8" s="69"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B9" s="68"/>
       <c r="C9" s="46"/>
       <c r="D9" s="42"/>
@@ -22823,7 +25067,7 @@
       <c r="G9" s="52"/>
       <c r="H9" s="69"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="68"/>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
@@ -22832,7 +25076,7 @@
       <c r="G10" s="48"/>
       <c r="H10" s="69"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="68"/>
       <c r="C11" s="42"/>
       <c r="D11" s="46"/>
@@ -22841,7 +25085,7 @@
       <c r="G11" s="53"/>
       <c r="H11" s="70"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="68"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -22850,7 +25094,7 @@
       <c r="G12" s="52"/>
       <c r="H12" s="70"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="68"/>
       <c r="C13" s="42"/>
       <c r="D13" s="54"/>
@@ -22859,7 +25103,7 @@
       <c r="G13" s="48"/>
       <c r="H13" s="71"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="68"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -22868,7 +25112,7 @@
       <c r="G14" s="52"/>
       <c r="H14" s="70"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="68"/>
       <c r="C15" s="42"/>
       <c r="D15" s="54"/>
@@ -22877,7 +25121,7 @@
       <c r="G15" s="48"/>
       <c r="H15" s="71"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="68"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -22886,7 +25130,7 @@
       <c r="G16" s="52"/>
       <c r="H16" s="69"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="68"/>
       <c r="C17" s="42"/>
       <c r="D17" s="54"/>
@@ -22895,7 +25139,7 @@
       <c r="G17" s="48"/>
       <c r="H17" s="70"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="68"/>
       <c r="C18" s="46"/>
       <c r="D18" s="42"/>
@@ -22904,7 +25148,7 @@
       <c r="G18" s="52"/>
       <c r="H18" s="69"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="68"/>
       <c r="C19" s="42"/>
       <c r="D19" s="46"/>
@@ -22913,7 +25157,7 @@
       <c r="G19" s="48"/>
       <c r="H19" s="70"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="68"/>
       <c r="C20" s="46"/>
       <c r="D20" s="42"/>
@@ -22922,7 +25166,7 @@
       <c r="G20" s="52"/>
       <c r="H20" s="69"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="68"/>
       <c r="C21" s="42"/>
       <c r="D21" s="46"/>
@@ -22931,7 +25175,7 @@
       <c r="G21" s="48"/>
       <c r="H21" s="70"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="68"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -22940,7 +25184,7 @@
       <c r="G22" s="52"/>
       <c r="H22" s="69"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="66"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
@@ -22949,7 +25193,7 @@
       <c r="G23" s="56"/>
       <c r="H23" s="69"/>
     </row>
-    <row r="24" spans="2:8" ht="14.25" thickBot="1">
+    <row r="24" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="72"/>
       <c r="C24" s="73"/>
       <c r="D24" s="73"/>
@@ -22979,403 +25223,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I14"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="7.625" style="15" customWidth="1"/>
-    <col min="5" max="257" width="9" style="15"/>
-    <col min="258" max="258" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="15.625" style="15" customWidth="1"/>
-    <col min="260" max="260" width="7.625" style="15" customWidth="1"/>
-    <col min="261" max="513" width="9" style="15"/>
-    <col min="514" max="514" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="15.625" style="15" customWidth="1"/>
-    <col min="516" max="516" width="7.625" style="15" customWidth="1"/>
-    <col min="517" max="769" width="9" style="15"/>
-    <col min="770" max="770" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="15.625" style="15" customWidth="1"/>
-    <col min="772" max="772" width="7.625" style="15" customWidth="1"/>
-    <col min="773" max="1025" width="9" style="15"/>
-    <col min="1026" max="1026" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="15.625" style="15" customWidth="1"/>
-    <col min="1028" max="1028" width="7.625" style="15" customWidth="1"/>
-    <col min="1029" max="1281" width="9" style="15"/>
-    <col min="1282" max="1282" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="15.625" style="15" customWidth="1"/>
-    <col min="1284" max="1284" width="7.625" style="15" customWidth="1"/>
-    <col min="1285" max="1537" width="9" style="15"/>
-    <col min="1538" max="1538" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="15.625" style="15" customWidth="1"/>
-    <col min="1540" max="1540" width="7.625" style="15" customWidth="1"/>
-    <col min="1541" max="1793" width="9" style="15"/>
-    <col min="1794" max="1794" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="15.625" style="15" customWidth="1"/>
-    <col min="1796" max="1796" width="7.625" style="15" customWidth="1"/>
-    <col min="1797" max="2049" width="9" style="15"/>
-    <col min="2050" max="2050" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="15.625" style="15" customWidth="1"/>
-    <col min="2052" max="2052" width="7.625" style="15" customWidth="1"/>
-    <col min="2053" max="2305" width="9" style="15"/>
-    <col min="2306" max="2306" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="15.625" style="15" customWidth="1"/>
-    <col min="2308" max="2308" width="7.625" style="15" customWidth="1"/>
-    <col min="2309" max="2561" width="9" style="15"/>
-    <col min="2562" max="2562" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="15.625" style="15" customWidth="1"/>
-    <col min="2564" max="2564" width="7.625" style="15" customWidth="1"/>
-    <col min="2565" max="2817" width="9" style="15"/>
-    <col min="2818" max="2818" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="15.625" style="15" customWidth="1"/>
-    <col min="2820" max="2820" width="7.625" style="15" customWidth="1"/>
-    <col min="2821" max="3073" width="9" style="15"/>
-    <col min="3074" max="3074" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="15.625" style="15" customWidth="1"/>
-    <col min="3076" max="3076" width="7.625" style="15" customWidth="1"/>
-    <col min="3077" max="3329" width="9" style="15"/>
-    <col min="3330" max="3330" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="15.625" style="15" customWidth="1"/>
-    <col min="3332" max="3332" width="7.625" style="15" customWidth="1"/>
-    <col min="3333" max="3585" width="9" style="15"/>
-    <col min="3586" max="3586" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="15.625" style="15" customWidth="1"/>
-    <col min="3588" max="3588" width="7.625" style="15" customWidth="1"/>
-    <col min="3589" max="3841" width="9" style="15"/>
-    <col min="3842" max="3842" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="15.625" style="15" customWidth="1"/>
-    <col min="3844" max="3844" width="7.625" style="15" customWidth="1"/>
-    <col min="3845" max="4097" width="9" style="15"/>
-    <col min="4098" max="4098" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="15.625" style="15" customWidth="1"/>
-    <col min="4100" max="4100" width="7.625" style="15" customWidth="1"/>
-    <col min="4101" max="4353" width="9" style="15"/>
-    <col min="4354" max="4354" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="15.625" style="15" customWidth="1"/>
-    <col min="4356" max="4356" width="7.625" style="15" customWidth="1"/>
-    <col min="4357" max="4609" width="9" style="15"/>
-    <col min="4610" max="4610" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="15.625" style="15" customWidth="1"/>
-    <col min="4612" max="4612" width="7.625" style="15" customWidth="1"/>
-    <col min="4613" max="4865" width="9" style="15"/>
-    <col min="4866" max="4866" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="15.625" style="15" customWidth="1"/>
-    <col min="4868" max="4868" width="7.625" style="15" customWidth="1"/>
-    <col min="4869" max="5121" width="9" style="15"/>
-    <col min="5122" max="5122" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="15.625" style="15" customWidth="1"/>
-    <col min="5124" max="5124" width="7.625" style="15" customWidth="1"/>
-    <col min="5125" max="5377" width="9" style="15"/>
-    <col min="5378" max="5378" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="15.625" style="15" customWidth="1"/>
-    <col min="5380" max="5380" width="7.625" style="15" customWidth="1"/>
-    <col min="5381" max="5633" width="9" style="15"/>
-    <col min="5634" max="5634" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="15.625" style="15" customWidth="1"/>
-    <col min="5636" max="5636" width="7.625" style="15" customWidth="1"/>
-    <col min="5637" max="5889" width="9" style="15"/>
-    <col min="5890" max="5890" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="15.625" style="15" customWidth="1"/>
-    <col min="5892" max="5892" width="7.625" style="15" customWidth="1"/>
-    <col min="5893" max="6145" width="9" style="15"/>
-    <col min="6146" max="6146" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="15.625" style="15" customWidth="1"/>
-    <col min="6148" max="6148" width="7.625" style="15" customWidth="1"/>
-    <col min="6149" max="6401" width="9" style="15"/>
-    <col min="6402" max="6402" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="15.625" style="15" customWidth="1"/>
-    <col min="6404" max="6404" width="7.625" style="15" customWidth="1"/>
-    <col min="6405" max="6657" width="9" style="15"/>
-    <col min="6658" max="6658" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="15.625" style="15" customWidth="1"/>
-    <col min="6660" max="6660" width="7.625" style="15" customWidth="1"/>
-    <col min="6661" max="6913" width="9" style="15"/>
-    <col min="6914" max="6914" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="15.625" style="15" customWidth="1"/>
-    <col min="6916" max="6916" width="7.625" style="15" customWidth="1"/>
-    <col min="6917" max="7169" width="9" style="15"/>
-    <col min="7170" max="7170" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="15.625" style="15" customWidth="1"/>
-    <col min="7172" max="7172" width="7.625" style="15" customWidth="1"/>
-    <col min="7173" max="7425" width="9" style="15"/>
-    <col min="7426" max="7426" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="15.625" style="15" customWidth="1"/>
-    <col min="7428" max="7428" width="7.625" style="15" customWidth="1"/>
-    <col min="7429" max="7681" width="9" style="15"/>
-    <col min="7682" max="7682" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="15.625" style="15" customWidth="1"/>
-    <col min="7684" max="7684" width="7.625" style="15" customWidth="1"/>
-    <col min="7685" max="7937" width="9" style="15"/>
-    <col min="7938" max="7938" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="15.625" style="15" customWidth="1"/>
-    <col min="7940" max="7940" width="7.625" style="15" customWidth="1"/>
-    <col min="7941" max="8193" width="9" style="15"/>
-    <col min="8194" max="8194" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="15.625" style="15" customWidth="1"/>
-    <col min="8196" max="8196" width="7.625" style="15" customWidth="1"/>
-    <col min="8197" max="8449" width="9" style="15"/>
-    <col min="8450" max="8450" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="15.625" style="15" customWidth="1"/>
-    <col min="8452" max="8452" width="7.625" style="15" customWidth="1"/>
-    <col min="8453" max="8705" width="9" style="15"/>
-    <col min="8706" max="8706" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="15.625" style="15" customWidth="1"/>
-    <col min="8708" max="8708" width="7.625" style="15" customWidth="1"/>
-    <col min="8709" max="8961" width="9" style="15"/>
-    <col min="8962" max="8962" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="15.625" style="15" customWidth="1"/>
-    <col min="8964" max="8964" width="7.625" style="15" customWidth="1"/>
-    <col min="8965" max="9217" width="9" style="15"/>
-    <col min="9218" max="9218" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="15.625" style="15" customWidth="1"/>
-    <col min="9220" max="9220" width="7.625" style="15" customWidth="1"/>
-    <col min="9221" max="9473" width="9" style="15"/>
-    <col min="9474" max="9474" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="15.625" style="15" customWidth="1"/>
-    <col min="9476" max="9476" width="7.625" style="15" customWidth="1"/>
-    <col min="9477" max="9729" width="9" style="15"/>
-    <col min="9730" max="9730" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="15.625" style="15" customWidth="1"/>
-    <col min="9732" max="9732" width="7.625" style="15" customWidth="1"/>
-    <col min="9733" max="9985" width="9" style="15"/>
-    <col min="9986" max="9986" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="15.625" style="15" customWidth="1"/>
-    <col min="9988" max="9988" width="7.625" style="15" customWidth="1"/>
-    <col min="9989" max="10241" width="9" style="15"/>
-    <col min="10242" max="10242" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="15.625" style="15" customWidth="1"/>
-    <col min="10244" max="10244" width="7.625" style="15" customWidth="1"/>
-    <col min="10245" max="10497" width="9" style="15"/>
-    <col min="10498" max="10498" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="15.625" style="15" customWidth="1"/>
-    <col min="10500" max="10500" width="7.625" style="15" customWidth="1"/>
-    <col min="10501" max="10753" width="9" style="15"/>
-    <col min="10754" max="10754" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="15.625" style="15" customWidth="1"/>
-    <col min="10756" max="10756" width="7.625" style="15" customWidth="1"/>
-    <col min="10757" max="11009" width="9" style="15"/>
-    <col min="11010" max="11010" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="15.625" style="15" customWidth="1"/>
-    <col min="11012" max="11012" width="7.625" style="15" customWidth="1"/>
-    <col min="11013" max="11265" width="9" style="15"/>
-    <col min="11266" max="11266" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="15.625" style="15" customWidth="1"/>
-    <col min="11268" max="11268" width="7.625" style="15" customWidth="1"/>
-    <col min="11269" max="11521" width="9" style="15"/>
-    <col min="11522" max="11522" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="15.625" style="15" customWidth="1"/>
-    <col min="11524" max="11524" width="7.625" style="15" customWidth="1"/>
-    <col min="11525" max="11777" width="9" style="15"/>
-    <col min="11778" max="11778" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="15.625" style="15" customWidth="1"/>
-    <col min="11780" max="11780" width="7.625" style="15" customWidth="1"/>
-    <col min="11781" max="12033" width="9" style="15"/>
-    <col min="12034" max="12034" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="15.625" style="15" customWidth="1"/>
-    <col min="12036" max="12036" width="7.625" style="15" customWidth="1"/>
-    <col min="12037" max="12289" width="9" style="15"/>
-    <col min="12290" max="12290" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="15.625" style="15" customWidth="1"/>
-    <col min="12292" max="12292" width="7.625" style="15" customWidth="1"/>
-    <col min="12293" max="12545" width="9" style="15"/>
-    <col min="12546" max="12546" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="15.625" style="15" customWidth="1"/>
-    <col min="12548" max="12548" width="7.625" style="15" customWidth="1"/>
-    <col min="12549" max="12801" width="9" style="15"/>
-    <col min="12802" max="12802" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="15.625" style="15" customWidth="1"/>
-    <col min="12804" max="12804" width="7.625" style="15" customWidth="1"/>
-    <col min="12805" max="13057" width="9" style="15"/>
-    <col min="13058" max="13058" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="15.625" style="15" customWidth="1"/>
-    <col min="13060" max="13060" width="7.625" style="15" customWidth="1"/>
-    <col min="13061" max="13313" width="9" style="15"/>
-    <col min="13314" max="13314" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="15.625" style="15" customWidth="1"/>
-    <col min="13316" max="13316" width="7.625" style="15" customWidth="1"/>
-    <col min="13317" max="13569" width="9" style="15"/>
-    <col min="13570" max="13570" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="15.625" style="15" customWidth="1"/>
-    <col min="13572" max="13572" width="7.625" style="15" customWidth="1"/>
-    <col min="13573" max="13825" width="9" style="15"/>
-    <col min="13826" max="13826" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="15.625" style="15" customWidth="1"/>
-    <col min="13828" max="13828" width="7.625" style="15" customWidth="1"/>
-    <col min="13829" max="14081" width="9" style="15"/>
-    <col min="14082" max="14082" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="15.625" style="15" customWidth="1"/>
-    <col min="14084" max="14084" width="7.625" style="15" customWidth="1"/>
-    <col min="14085" max="14337" width="9" style="15"/>
-    <col min="14338" max="14338" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="15.625" style="15" customWidth="1"/>
-    <col min="14340" max="14340" width="7.625" style="15" customWidth="1"/>
-    <col min="14341" max="14593" width="9" style="15"/>
-    <col min="14594" max="14594" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="15.625" style="15" customWidth="1"/>
-    <col min="14596" max="14596" width="7.625" style="15" customWidth="1"/>
-    <col min="14597" max="14849" width="9" style="15"/>
-    <col min="14850" max="14850" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="15.625" style="15" customWidth="1"/>
-    <col min="14852" max="14852" width="7.625" style="15" customWidth="1"/>
-    <col min="14853" max="15105" width="9" style="15"/>
-    <col min="15106" max="15106" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="15.625" style="15" customWidth="1"/>
-    <col min="15108" max="15108" width="7.625" style="15" customWidth="1"/>
-    <col min="15109" max="15361" width="9" style="15"/>
-    <col min="15362" max="15362" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="15.625" style="15" customWidth="1"/>
-    <col min="15364" max="15364" width="7.625" style="15" customWidth="1"/>
-    <col min="15365" max="15617" width="9" style="15"/>
-    <col min="15618" max="15618" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="15.625" style="15" customWidth="1"/>
-    <col min="15620" max="15620" width="7.625" style="15" customWidth="1"/>
-    <col min="15621" max="15873" width="9" style="15"/>
-    <col min="15874" max="15874" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="15.625" style="15" customWidth="1"/>
-    <col min="15876" max="15876" width="7.625" style="15" customWidth="1"/>
-    <col min="15877" max="16129" width="9" style="15"/>
-    <col min="16130" max="16130" width="9.125" style="15" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="15.625" style="15" customWidth="1"/>
-    <col min="16132" max="16132" width="7.625" style="15" customWidth="1"/>
-    <col min="16133" max="16384" width="9" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="8.1" customHeight="1">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.25">
-      <c r="A2" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" ht="3.95" customHeight="1">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.25">
-      <c r="A5" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B7" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="99" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="99" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="100" t="s">
-        <v>75</v>
-      </c>
-      <c r="F7" s="100"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="101"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="90">
-        <v>44921</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="91"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="90">
-        <v>44984</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="91"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B10" s="92"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="96"/>
-      <c r="H10" s="96"/>
-      <c r="I10" s="97"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="17"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="17"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="17"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="17"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.86614173228346458" bottom="0.78740157480314965" header="0.47244094488188981" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter xml:space="preserve">&amp;C&amp;10　
-&amp;R
-</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="27" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="27" customWidth="1"/>
@@ -23827,7 +25682,7 @@
     <col min="16136" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="6" customHeight="1">
+    <row r="1" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="28"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -23836,25 +25691,25 @@
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
     </row>
-    <row r="2" spans="1:7" ht="17.25">
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="6" customHeight="1">
+    <row r="4" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1">
+    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" thickBot="1">
+    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="59"/>
       <c r="B7" s="109" t="s">
         <v>61</v>
@@ -23875,7 +25730,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="60"/>
       <c r="C8" s="61"/>
@@ -23884,7 +25739,7 @@
       <c r="F8" s="62"/>
       <c r="G8" s="63"/>
     </row>
-    <row r="9" spans="1:7" ht="14.1" customHeight="1">
+    <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -23893,23 +25748,23 @@
       <c r="F9" s="35"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="6" customHeight="1">
+    <row r="11" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" thickBot="1">
+    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1">
+    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="59"/>
       <c r="B14" s="109" t="s">
         <v>61</v>
@@ -23930,7 +25785,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.1" customHeight="1">
+    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="35"/>
       <c r="B15" s="64"/>
       <c r="C15" s="39"/>
@@ -23939,7 +25794,7 @@
       <c r="F15" s="40"/>
       <c r="G15" s="65"/>
     </row>
-    <row r="16" spans="1:7" ht="14.1" customHeight="1">
+    <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="35"/>
       <c r="B16" s="64"/>
       <c r="C16" s="39"/>
@@ -23948,7 +25803,7 @@
       <c r="F16" s="40"/>
       <c r="G16" s="65"/>
     </row>
-    <row r="17" spans="1:7" ht="14.1" customHeight="1">
+    <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="35"/>
       <c r="B17" s="64"/>
       <c r="C17" s="39"/>
@@ -23957,7 +25812,7 @@
       <c r="F17" s="40"/>
       <c r="G17" s="65"/>
     </row>
-    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
@@ -23985,7 +25840,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="13" width="6.625" style="27" customWidth="1"/>
     <col min="14" max="256" width="9" style="27"/>
@@ -24117,7 +25972,7 @@
     <col min="16142" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1">
+    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -24132,156 +25987,156 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25">
+    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="4" spans="1:13" ht="6" customHeight="1">
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1">
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
     </row>
-    <row r="7" spans="1:13" ht="14.45" customHeight="1">
+    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="9" spans="1:13" ht="14.45" customHeight="1">
+    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="38" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.45" customHeight="1">
+    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="12" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="13" spans="1:13" ht="6" customHeight="1">
+    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="29"/>
     </row>
-    <row r="16" spans="1:13" ht="14.45" customHeight="1">
+    <row r="16" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.45" customHeight="1">
+    <row r="17" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="27" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="19" spans="1:13" ht="14.45" customHeight="1">
+    <row r="18" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="27" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:13" ht="14.45" customHeight="1">
+    <row r="20" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="38" t="s">
         <v>80</v>
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:13" ht="14.45" customHeight="1">
+    <row r="21" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:13" ht="14.45" customHeight="1">
+    <row r="22" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:13" ht="6" customHeight="1">
+    <row r="23" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="29" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14.45" customHeight="1">
+    <row r="25" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:13" ht="14.45" customHeight="1">
+    <row r="26" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="27" t="s">
         <v>24</v>
       </c>
       <c r="M26" s="30"/>
     </row>
-    <row r="27" spans="1:13" ht="14.45" customHeight="1">
+    <row r="27" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="27" t="s">
         <v>25</v>
       </c>
       <c r="M27" s="30"/>
     </row>
-    <row r="28" spans="1:13" ht="14.45" customHeight="1">
+    <row r="28" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="27" t="s">
         <v>26</v>
       </c>
       <c r="M28" s="30"/>
     </row>
-    <row r="29" spans="1:13" ht="14.45" customHeight="1">
+    <row r="29" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="27" t="s">
         <v>27</v>
       </c>
       <c r="M29" s="30"/>
     </row>
-    <row r="30" spans="1:13" ht="14.45" customHeight="1">
+    <row r="30" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="27" t="s">
         <v>28</v>
       </c>
       <c r="M30" s="30"/>
     </row>
-    <row r="31" spans="1:13" ht="14.45" customHeight="1">
+    <row r="31" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="27" t="s">
         <v>29</v>
       </c>
       <c r="M31" s="30"/>
     </row>
-    <row r="32" spans="1:13" ht="14.45" customHeight="1">
+    <row r="32" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="27" t="s">
         <v>30</v>
       </c>
       <c r="M32" s="30"/>
     </row>
-    <row r="33" spans="2:13" ht="14.45" customHeight="1">
+    <row r="33" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="27" t="s">
         <v>31</v>
       </c>
       <c r="M33" s="30"/>
     </row>
-    <row r="34" spans="2:13" ht="14.45" customHeight="1">
+    <row r="34" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="27" t="s">
         <v>32</v>
       </c>
       <c r="M34" s="30"/>
     </row>
-    <row r="35" spans="2:13" ht="14.45" customHeight="1">
+    <row r="35" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M35" s="30"/>
     </row>
-    <row r="36" spans="2:13" ht="14.45" customHeight="1">
+    <row r="36" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M36" s="30"/>
     </row>
-    <row r="37" spans="2:13" ht="14.45" customHeight="1">
+    <row r="37" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M37" s="30"/>
     </row>
   </sheetData>
@@ -24299,13 +26154,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="2.75" style="82"/>
     <col min="4" max="4" width="22.125" style="82" customWidth="1"/>
@@ -24314,7 +26170,7 @@
     <col min="7" max="16384" width="2.75" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="6" customHeight="1">
+    <row r="1" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="81"/>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -24322,7 +26178,7 @@
       <c r="E1" s="81"/>
       <c r="F1" s="81"/>
     </row>
-    <row r="2" spans="1:6" ht="17.25">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="80" t="s">
         <v>73</v>
       </c>
@@ -24332,7 +26188,7 @@
       <c r="E2" s="79"/>
       <c r="F2" s="79"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="79"/>
       <c r="B3" s="79"/>
       <c r="C3" s="83"/>
@@ -24340,7 +26196,7 @@
       <c r="E3" s="83"/>
       <c r="F3" s="83"/>
     </row>
-    <row r="4" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="4" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
       <c r="C4" s="84"/>
@@ -24350,7 +26206,7 @@
       <c r="E4" s="84"/>
       <c r="F4" s="84"/>
     </row>
-    <row r="5" spans="1:6" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:6" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
       <c r="C5" s="84"/>
@@ -24358,7 +26214,7 @@
       <c r="E5" s="84"/>
       <c r="F5" s="84"/>
     </row>
-    <row r="6" spans="1:6" s="85" customFormat="1" ht="12">
+    <row r="6" spans="1:6" s="85" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
       <c r="C6" s="84"/>
@@ -24370,7 +26226,7 @@
       </c>
       <c r="F6" s="84"/>
     </row>
-    <row r="7" spans="1:6" s="85" customFormat="1">
+    <row r="7" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
       <c r="C7" s="84"/>
@@ -24382,7 +26238,7 @@
       </c>
       <c r="F7" s="84"/>
     </row>
-    <row r="8" spans="1:6" s="85" customFormat="1">
+    <row r="8" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
       <c r="C8" s="84"/>
@@ -24394,7 +26250,7 @@
       </c>
       <c r="F8" s="84"/>
     </row>
-    <row r="9" spans="1:6" s="85" customFormat="1">
+    <row r="9" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="84"/>
       <c r="B9" s="84"/>
       <c r="C9" s="84"/>
@@ -24406,7 +26262,7 @@
       </c>
       <c r="F9" s="84"/>
     </row>
-    <row r="10" spans="1:6" s="85" customFormat="1">
+    <row r="10" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="84"/>
       <c r="B10" s="84"/>
       <c r="C10" s="84"/>
@@ -24418,7 +26274,7 @@
       </c>
       <c r="F10" s="84"/>
     </row>
-    <row r="11" spans="1:6" s="85" customFormat="1">
+    <row r="11" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="84"/>
       <c r="B11" s="84"/>
       <c r="C11" s="84"/>
@@ -24430,7 +26286,7 @@
       </c>
       <c r="F11" s="84"/>
     </row>
-    <row r="12" spans="1:6" s="85" customFormat="1">
+    <row r="12" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="84"/>
       <c r="B12" s="84"/>
       <c r="C12" s="84"/>
@@ -24442,7 +26298,7 @@
       </c>
       <c r="F12" s="84"/>
     </row>
-    <row r="13" spans="1:6" s="85" customFormat="1">
+    <row r="13" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="84"/>
       <c r="B13" s="84"/>
       <c r="C13" s="84"/>
@@ -24454,7 +26310,7 @@
       </c>
       <c r="F13" s="84"/>
     </row>
-    <row r="14" spans="1:6" s="85" customFormat="1">
+    <row r="14" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="84"/>
       <c r="B14" s="84"/>
       <c r="C14" s="84"/>
@@ -24466,7 +26322,7 @@
       </c>
       <c r="F14" s="84"/>
     </row>
-    <row r="15" spans="1:6" s="85" customFormat="1">
+    <row r="15" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="84"/>
       <c r="B15" s="84"/>
       <c r="C15" s="84"/>
@@ -24478,7 +26334,7 @@
       </c>
       <c r="F15" s="84"/>
     </row>
-    <row r="16" spans="1:6" s="85" customFormat="1">
+    <row r="16" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="84"/>
       <c r="B16" s="84"/>
       <c r="C16" s="84"/>
@@ -24490,7 +26346,7 @@
       </c>
       <c r="F16" s="84"/>
     </row>
-    <row r="17" spans="1:6" s="85" customFormat="1">
+    <row r="17" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="84"/>
       <c r="B17" s="84"/>
       <c r="C17" s="84"/>
@@ -24502,7 +26358,7 @@
       </c>
       <c r="F17" s="84"/>
     </row>
-    <row r="18" spans="1:6" s="85" customFormat="1">
+    <row r="18" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="84"/>
       <c r="B18" s="84"/>
       <c r="C18" s="84"/>
@@ -24514,7 +26370,7 @@
       </c>
       <c r="F18" s="84"/>
     </row>
-    <row r="19" spans="1:6" s="85" customFormat="1">
+    <row r="19" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="84"/>
       <c r="B19" s="84"/>
       <c r="C19" s="84"/>
@@ -24526,29 +26382,41 @@
       </c>
       <c r="F19" s="84"/>
     </row>
-    <row r="20" spans="1:6" s="85" customFormat="1" ht="12" thickBot="1">
-      <c r="A20" s="87"/>
+    <row r="20" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="84"/>
       <c r="B20" s="84"/>
       <c r="C20" s="84"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
+      <c r="D20" s="117" t="s">
+        <v>206</v>
+      </c>
+      <c r="E20" s="129" t="s">
+        <v>207</v>
+      </c>
       <c r="F20" s="84"/>
     </row>
-    <row r="21" spans="1:6" s="85" customFormat="1" ht="11.25">
-      <c r="A21" s="84"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-    </row>
-    <row r="22" spans="1:6" s="85" customFormat="1" ht="11.25">
-      <c r="A22" s="87"/>
+    <row r="21" spans="1:6" s="85" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="87"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="84"/>
+    </row>
+    <row r="22" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="84"/>
       <c r="B22" s="87"/>
       <c r="C22" s="87"/>
       <c r="D22" s="87"/>
       <c r="E22" s="87"/>
       <c r="F22" s="87"/>
+    </row>
+    <row r="23" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A23" s="87"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -24566,9 +26434,10 @@
     <hyperlink ref="D18" location="'テスト仕様_テスト結果(テスト・シナリオ12)'!A1" display="シナリオ12"/>
     <hyperlink ref="D17" location="'テスト仕様_テスト結果(テスト・シナリオ11)'!A1" display="シナリオ11"/>
     <hyperlink ref="D19" location="'テスト仕様_テスト結果(テスト・シナリオ13)'!A1" display="シナリオ13"/>
+    <hyperlink ref="D20" location="'テスト仕様_テスト結果(テスト・シナリオ14)'!A1" display="シナリオ14"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="96" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;8&amp;F&amp;R&amp;8XXX構築プロジェクト
 &lt;YYYY/MM/DD&gt;</oddHeader>
@@ -24585,7 +26454,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="27" customWidth="1"/>
@@ -24845,7 +26714,7 @@
     <col min="16132" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -24856,55 +26725,55 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="14.25">
+    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="120" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="25.5" customHeight="1">
-      <c r="B7" s="127" t="s">
+    <row r="7" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="132" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="127"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="B8" s="127" t="s">
+      <c r="C7" s="132"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="132" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="127"/>
-    </row>
-    <row r="9" spans="1:9" ht="13.5" customHeight="1">
+      <c r="C8" s="132"/>
+    </row>
+    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="121"/>
       <c r="C9" s="122"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" s="34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11" s="33" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" s="121"/>
       <c r="C12" s="122"/>
     </row>
-    <row r="13" spans="1:9" s="113" customFormat="1">
+    <row r="13" spans="1:9" s="113" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="121" t="s">
         <v>100</v>
       </c>
@@ -24912,22 +26781,22 @@
         <v>196</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="113" customFormat="1"/>
-    <row r="15" spans="1:9">
+    <row r="14" spans="1:9" s="113" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="34" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="123"/>
       <c r="C17" s="123"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="121" t="s">
         <v>99</v>
       </c>
@@ -24935,24 +26804,24 @@
         <v>96</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="33"/>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" s="34" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" s="123"/>
       <c r="C22" s="123"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B23" s="121" t="s">
         <v>98</v>
       </c>
@@ -24960,24 +26829,24 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B24" s="33"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B25" s="34" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B26" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B27" s="123"/>
       <c r="C27" s="123"/>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B28" s="121" t="s">
         <v>98</v>
       </c>
@@ -24985,24 +26854,24 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B29" s="33"/>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B30" s="34" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="31" spans="2:3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B31" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B32" s="123"/>
       <c r="C32" s="123"/>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B33" s="121" t="s">
         <v>98</v>
       </c>
@@ -25010,24 +26879,24 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B34" s="33"/>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B35" s="34" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B36" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B37" s="123"/>
       <c r="C37" s="123"/>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B38" s="121" t="s">
         <v>98</v>
       </c>
@@ -25035,24 +26904,24 @@
         <v>153</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B39" s="33"/>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B40" s="34" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B41" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B42" s="123"/>
       <c r="C42" s="123"/>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B43" s="121" t="s">
         <v>98</v>
       </c>
@@ -25060,25 +26929,25 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B44" s="123"/>
       <c r="C44" s="123"/>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B45" s="34" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B46" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
+    <row r="47" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B47" s="123"/>
       <c r="C47" s="123"/>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B48" s="121" t="s">
         <v>98</v>
       </c>
@@ -25086,24 +26955,24 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B49" s="33"/>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B50" s="34" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B51" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B52" s="123"/>
       <c r="C52" s="123"/>
     </row>
-    <row r="53" spans="2:3">
+    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B53" s="121" t="s">
         <v>98</v>
       </c>
@@ -25111,21 +26980,21 @@
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B55" s="34" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B56" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="2:3">
+    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B57" s="123"/>
       <c r="C57" s="123"/>
     </row>
-    <row r="58" spans="2:3">
+    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B58" s="121" t="s">
         <v>98</v>
       </c>
@@ -25133,21 +27002,21 @@
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="2:3">
+    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B60" s="34" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="61" spans="2:3">
+    <row r="61" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B61" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="2:3">
+    <row r="62" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B62" s="123"/>
       <c r="C62" s="123"/>
     </row>
-    <row r="63" spans="2:3">
+    <row r="63" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B63" s="121" t="s">
         <v>98</v>
       </c>
@@ -25155,21 +27024,21 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B65" s="34" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B66" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B67" s="123"/>
       <c r="C67" s="123"/>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B68" s="121" t="s">
         <v>98</v>
       </c>
@@ -25177,21 +27046,21 @@
         <v>195</v>
       </c>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B70" s="34" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B71" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B72" s="123"/>
       <c r="C72" s="123"/>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B73" s="121" t="s">
         <v>98</v>
       </c>
@@ -25224,7 +27093,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -25804,7 +27673,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -25815,35 +27684,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>42</v>
       </c>
@@ -25869,7 +27738,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>79</v>
@@ -25884,7 +27753,7 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="105">
+    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>85</v>
@@ -25911,7 +27780,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -25932,7 +27801,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -25952,7 +27821,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -25962,7 +27831,7 @@
       <c r="H15" s="46"/>
       <c r="I15" s="76"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -25972,7 +27841,7 @@
       <c r="H16" s="46"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
@@ -25983,7 +27852,7 @@
       <c r="H17" s="57"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
@@ -25994,7 +27863,7 @@
       <c r="H18" s="57"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -26004,7 +27873,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
@@ -26015,7 +27884,7 @@
       <c r="H20" s="57"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -26026,7 +27895,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -26036,7 +27905,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -26046,7 +27915,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -26056,7 +27925,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -26066,7 +27935,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -26076,7 +27945,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -26086,7 +27955,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="114"/>
       <c r="D28" s="46"/>
@@ -26096,7 +27965,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -26106,7 +27975,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" thickBot="1">
+    <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="72"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -26116,7 +27985,7 @@
       <c r="H30" s="47"/>
       <c r="I30" s="77"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -26126,7 +27995,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -26136,7 +28005,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -26146,7 +28015,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>50</v>
       </c>
@@ -26156,7 +28025,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -26166,7 +28035,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="119"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -26176,7 +28045,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -26186,7 +28055,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -26196,7 +28065,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -26206,7 +28075,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -26224,7 +28093,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -26243,7 +28112,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -26823,7 +28692,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -26834,35 +28703,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>42</v>
       </c>
@@ -26888,7 +28757,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>88</v>
@@ -26903,7 +28772,7 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="105">
+    <row r="12" spans="1:9" ht="105" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>89</v>
@@ -26930,7 +28799,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -26951,7 +28820,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="52.5">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -26971,7 +28840,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -26981,7 +28850,7 @@
       <c r="H15" s="46"/>
       <c r="I15" s="76"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -26991,7 +28860,7 @@
       <c r="H16" s="46"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -27001,7 +28870,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -27011,7 +28880,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -27021,7 +28890,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
@@ -27032,7 +28901,7 @@
       <c r="H20" s="57"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -27043,7 +28912,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -27053,7 +28922,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="38"/>
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
@@ -27064,7 +28933,7 @@
       <c r="H23" s="57"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
@@ -27075,7 +28944,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -27085,7 +28954,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -27095,7 +28964,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -27105,7 +28974,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -27115,7 +28984,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -27125,7 +28994,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" thickBot="1">
+    <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="72"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -27135,7 +29004,7 @@
       <c r="H30" s="47"/>
       <c r="I30" s="77"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -27145,7 +29014,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -27155,7 +29024,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -27165,7 +29034,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>50</v>
       </c>
@@ -27175,7 +29044,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -27185,7 +29054,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="119"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -27195,7 +29064,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -27205,7 +29074,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -27215,7 +29084,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -27225,7 +29094,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -27243,7 +29112,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -27262,7 +29131,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -27842,7 +29711,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -27853,35 +29722,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>42</v>
       </c>
@@ -27907,7 +29776,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>90</v>
@@ -27922,7 +29791,7 @@
       <c r="H11" s="115"/>
       <c r="I11" s="118"/>
     </row>
-    <row r="12" spans="1:9" ht="84">
+    <row r="12" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="B12" s="64" t="s">
         <v>91</v>
       </c>
@@ -27948,7 +29817,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
@@ -27968,7 +29837,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="116"/>
@@ -27988,7 +29857,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A15" s="38"/>
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
@@ -28009,7 +29878,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="38"/>
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
@@ -28020,7 +29889,7 @@
       <c r="H16" s="57"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="38"/>
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
@@ -28031,7 +29900,7 @@
       <c r="H17" s="57"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="38"/>
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
@@ -28042,7 +29911,7 @@
       <c r="H18" s="57"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="116"/>
@@ -28052,7 +29921,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
       <c r="D20" s="46"/>
@@ -28062,7 +29931,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
       <c r="D21" s="46"/>
@@ -28072,7 +29941,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -28082,7 +29951,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -28092,7 +29961,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -28102,7 +29971,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="114"/>
       <c r="D25" s="46"/>
@@ -28112,7 +29981,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -28122,7 +29991,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -28132,7 +30001,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -28142,7 +30011,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -28152,7 +30021,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" thickBot="1">
+    <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="72"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -28162,7 +30031,7 @@
       <c r="H30" s="47"/>
       <c r="I30" s="77"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -28172,7 +30041,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -28182,7 +30051,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -28192,7 +30061,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>50</v>
       </c>
@@ -28202,7 +30071,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -28212,7 +30081,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="119"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -28222,7 +30091,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -28232,7 +30101,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -28242,7 +30111,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -28252,7 +30121,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -28270,7 +30139,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -28289,7 +30158,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -28869,7 +30738,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -28880,35 +30749,35 @@
       <c r="H1" s="36"/>
       <c r="I1" s="36"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="37" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="104" t="s">
         <v>42</v>
       </c>
@@ -28934,7 +30803,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="38"/>
       <c r="B11" s="64" t="s">
         <v>160</v>
@@ -28949,7 +30818,7 @@
       <c r="H11" s="51"/>
       <c r="I11" s="78"/>
     </row>
-    <row r="12" spans="1:9" ht="84">
+    <row r="12" spans="1:9" ht="84" x14ac:dyDescent="0.15">
       <c r="A12" s="38"/>
       <c r="B12" s="64" t="s">
         <v>94</v>
@@ -28976,7 +30845,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="38"/>
       <c r="B13" s="64"/>
       <c r="C13" s="46"/>
@@ -28997,7 +30866,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="42">
+    <row r="14" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="B14" s="64"/>
       <c r="C14" s="46"/>
       <c r="D14" s="116"/>
@@ -29017,7 +30886,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B15" s="64"/>
       <c r="C15" s="46"/>
       <c r="D15" s="46"/>
@@ -29037,7 +30906,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="64"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -29047,7 +30916,7 @@
       <c r="H16" s="46"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
@@ -29057,7 +30926,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -29067,7 +30936,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="46"/>
       <c r="D19" s="46"/>
@@ -29077,7 +30946,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="38"/>
       <c r="B20" s="64"/>
       <c r="C20" s="46"/>
@@ -29088,7 +30957,7 @@
       <c r="H20" s="57"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="38"/>
       <c r="B21" s="64"/>
       <c r="C21" s="46"/>
@@ -29099,7 +30968,7 @@
       <c r="H21" s="57"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="64"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -29109,7 +30978,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="38"/>
       <c r="B23" s="64"/>
       <c r="C23" s="46"/>
@@ -29120,7 +30989,7 @@
       <c r="H23" s="57"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="38"/>
       <c r="B24" s="64"/>
       <c r="C24" s="46"/>
@@ -29131,7 +31000,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B25" s="64"/>
       <c r="C25" s="46"/>
       <c r="D25" s="46"/>
@@ -29141,7 +31010,7 @@
       <c r="H25" s="46"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B26" s="64"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -29151,7 +31020,7 @@
       <c r="H26" s="46"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="64"/>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -29161,7 +31030,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64"/>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -29171,7 +31040,7 @@
       <c r="H28" s="46"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -29181,7 +31050,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9" ht="14.25" thickBot="1">
+    <row r="30" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B30" s="72"/>
       <c r="C30" s="47"/>
       <c r="D30" s="47"/>
@@ -29191,7 +31060,7 @@
       <c r="H30" s="47"/>
       <c r="I30" s="77"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="35"/>
@@ -29201,7 +31070,7 @@
       <c r="H31" s="35"/>
       <c r="I31" s="35"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
       <c r="C32" s="35"/>
       <c r="D32" s="35"/>
@@ -29211,7 +31080,7 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
     </row>
-    <row r="33" spans="1:9" ht="6" customHeight="1">
+    <row r="33" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="28"/>
       <c r="B33" s="28"/>
       <c r="C33" s="28"/>
@@ -29221,7 +31090,7 @@
       <c r="G33" s="35"/>
       <c r="H33" s="35"/>
     </row>
-    <row r="34" spans="1:9" ht="14.25">
+    <row r="34" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
         <v>50</v>
       </c>
@@ -29231,7 +31100,7 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
       <c r="C35" s="35"/>
       <c r="D35" s="35"/>
@@ -29241,7 +31110,7 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="119"/>
       <c r="C36" s="35"/>
       <c r="D36" s="35"/>
@@ -29251,7 +31120,7 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
       <c r="C37" s="35"/>
       <c r="D37" s="35"/>
@@ -29261,7 +31130,7 @@
       <c r="H37" s="35"/>
       <c r="I37" s="35"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="35"/>
       <c r="C38" s="35"/>
       <c r="D38" s="35"/>
@@ -29271,7 +31140,7 @@
       <c r="H38" s="35"/>
       <c r="I38" s="35"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
@@ -29281,7 +31150,7 @@
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="35"/>
       <c r="C40" s="35"/>
       <c r="D40" s="35"/>
@@ -29299,7 +31168,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
